--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_19_28.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_19_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>612713.8653590372</v>
+        <v>612047.2479226156</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058541</v>
+        <v>632041.4518058542</v>
       </c>
     </row>
     <row r="9">
@@ -1370,25 +1370,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>5.300964703201117</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>84.54481721446595</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>84.54481721446595</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>38.03834418970703</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>36.42873081279461</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>23.12798498931294</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>46.03812530998758</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>84.54481721446604</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>84.54481721446595</v>
+        <v>84.54481721446604</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>84.54481721446604</v>
       </c>
     </row>
     <row r="12">
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>51.85943295535305</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1491,31 +1491,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.037534323606007</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>84.54481721446604</v>
       </c>
       <c r="T12" t="n">
-        <v>10.83321277868785</v>
+        <v>78.83557226606273</v>
       </c>
       <c r="U12" t="n">
-        <v>33.11619900411936</v>
+        <v>33.11619900411944</v>
       </c>
       <c r="V12" t="n">
-        <v>36.53747918923753</v>
+        <v>36.53747918923762</v>
       </c>
       <c r="W12" t="n">
-        <v>84.54481721446595</v>
+        <v>62.59314185084696</v>
       </c>
       <c r="X12" t="n">
-        <v>20.62803396596378</v>
+        <v>13.20147271330598</v>
       </c>
       <c r="Y12" t="n">
-        <v>84.54481721446595</v>
+        <v>19.27284440786099</v>
       </c>
     </row>
     <row r="13">
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>31.23138271479804</v>
+        <v>31.23138271479813</v>
       </c>
       <c r="T13" t="n">
-        <v>19.6267712025869</v>
+        <v>19.62677120258698</v>
       </c>
       <c r="U13" t="n">
-        <v>84.54481721446595</v>
+        <v>84.54481721446602</v>
       </c>
       <c r="V13" t="n">
-        <v>40.99757345828519</v>
+        <v>40.99757345828527</v>
       </c>
       <c r="W13" t="n">
-        <v>84.54481721446595</v>
+        <v>84.54481721446604</v>
       </c>
       <c r="X13" t="n">
-        <v>17.80801368207781</v>
+        <v>17.8080136820779</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.0298310880037</v>
+        <v>13.02983108800379</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>84.54481721446604</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1619,10 +1619,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>84.54481721446595</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>33.03797138100871</v>
+        <v>84.54481721446604</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>23.12798498931291</v>
+        <v>23.12798498931294</v>
       </c>
       <c r="T14" t="n">
-        <v>18.30111863217994</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>46.03812530998758</v>
       </c>
       <c r="V14" t="n">
-        <v>84.54481721446595</v>
+        <v>84.54481721446604</v>
       </c>
       <c r="W14" t="n">
-        <v>84.54481721446595</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>5.300964703201117</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>84.54481721446595</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>51.85943295535305</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1728,31 +1728,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.037534323606007</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>84.54481721446604</v>
       </c>
       <c r="T15" t="n">
-        <v>10.8332127786879</v>
+        <v>78.83557226606273</v>
       </c>
       <c r="U15" t="n">
-        <v>33.11619900411942</v>
+        <v>33.11619900411944</v>
       </c>
       <c r="V15" t="n">
-        <v>36.53747918923759</v>
+        <v>36.53747918923762</v>
       </c>
       <c r="W15" t="n">
-        <v>62.59314185084693</v>
+        <v>62.59314185084696</v>
       </c>
       <c r="X15" t="n">
-        <v>13.20147271330595</v>
+        <v>13.20147271330598</v>
       </c>
       <c r="Y15" t="n">
-        <v>29.37823661627668</v>
+        <v>19.27284440786099</v>
       </c>
     </row>
     <row r="16">
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>31.2313827147981</v>
+        <v>31.23138271479813</v>
       </c>
       <c r="T16" t="n">
-        <v>19.62677120258695</v>
+        <v>19.62677120258698</v>
       </c>
       <c r="U16" t="n">
-        <v>84.54481721446599</v>
+        <v>84.54481721446604</v>
       </c>
       <c r="V16" t="n">
-        <v>40.99757345828525</v>
+        <v>40.99757345828527</v>
       </c>
       <c r="W16" t="n">
-        <v>84.54481721446595</v>
+        <v>84.54481721446604</v>
       </c>
       <c r="X16" t="n">
-        <v>17.80801368207787</v>
+        <v>17.8080136820779</v>
       </c>
       <c r="Y16" t="n">
-        <v>13.02983108800376</v>
+        <v>13.02983108800379</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>14.77260506084633</v>
       </c>
       <c r="D17" t="n">
-        <v>2.339267321894795</v>
+        <v>2.339267321894924</v>
       </c>
       <c r="E17" t="n">
         <v>36.04601974130367</v>
@@ -1856,10 +1856,10 @@
         <v>67.76635731968099</v>
       </c>
       <c r="G17" t="n">
-        <v>83.3930999360968</v>
+        <v>83.39309993609683</v>
       </c>
       <c r="H17" t="n">
-        <v>11.46376063065043</v>
+        <v>11.46376063065044</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1938,13 +1938,13 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>84.54481721446595</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>22.60764204714853</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>51.85943295535305</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1965,22 +1965,22 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>6.037534323606007</v>
       </c>
       <c r="R18" t="n">
-        <v>84.54481721446595</v>
+        <v>84.54481721446604</v>
       </c>
       <c r="S18" t="n">
-        <v>84.54481721446595</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>68.42954067889568</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>84.54481721446604</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>84.54481721446604</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2081,7 +2081,7 @@
         <v>38.65434805750084</v>
       </c>
       <c r="C20" t="n">
-        <v>14.7726050608462</v>
+        <v>14.77260506084633</v>
       </c>
       <c r="D20" t="n">
         <v>2.339267321894795</v>
@@ -2157,19 +2157,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>16.57010772354257</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>84.54481721446595</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>84.54481721446595</v>
+        <v>74.46707500250166</v>
       </c>
       <c r="F21" t="n">
-        <v>84.54481721446595</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>51.85943295535305</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2202,10 +2202,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.037534323606007</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>84.54481721446604</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2214,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>84.54481721446604</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>84.54481721446604</v>
       </c>
     </row>
     <row r="22">
@@ -2400,16 +2400,16 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>16.57010772354257</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>84.54481721446595</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>84.54481721446595</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>84.54481721446595</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>51.85943295535305</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2439,22 +2439,22 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.037534323606007</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>84.54481721446604</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>84.54481721446604</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>84.54481721446604</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>74.46707500250166</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>161.246796807794</v>
+        <v>161.2467968077939</v>
       </c>
       <c r="C26" t="n">
-        <v>137.3650538111395</v>
+        <v>137.3650538111394</v>
       </c>
       <c r="D26" t="n">
-        <v>124.931716072188</v>
+        <v>124.9317160721879</v>
       </c>
       <c r="E26" t="n">
         <v>158.6384684915968</v>
       </c>
       <c r="F26" t="n">
-        <v>190.3588060699742</v>
+        <v>190.3588060699741</v>
       </c>
       <c r="G26" t="n">
-        <v>205.98554868639</v>
+        <v>205.9855486863899</v>
       </c>
       <c r="H26" t="n">
         <v>134.0562093809436</v>
       </c>
       <c r="I26" t="n">
-        <v>27.69972896892</v>
+        <v>27.69972896891994</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.39898314543824</v>
+        <v>14.39898314543818</v>
       </c>
       <c r="T26" t="n">
-        <v>9.572116788305264</v>
+        <v>9.572116788305207</v>
       </c>
       <c r="U26" t="n">
-        <v>37.30912346611288</v>
+        <v>37.30912346611282</v>
       </c>
       <c r="V26" t="n">
-        <v>108.0393400391127</v>
+        <v>108.0393400391126</v>
       </c>
       <c r="W26" t="n">
-        <v>125.0560202557276</v>
+        <v>125.0560202557275</v>
       </c>
       <c r="X26" t="n">
-        <v>146.9422707246668</v>
+        <v>146.9422707246667</v>
       </c>
       <c r="Y26" t="n">
-        <v>169.4451238484106</v>
+        <v>169.4451238484105</v>
       </c>
     </row>
     <row r="27">
@@ -2631,16 +2631,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>104.9455405408539</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2676,31 +2676,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>6.037534323606007</v>
       </c>
       <c r="R27" t="n">
-        <v>37.38071330444637</v>
+        <v>134.3151594521598</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>2.104210934813235</v>
+        <v>2.104210934813179</v>
       </c>
       <c r="U27" t="n">
-        <v>24.38719716024475</v>
+        <v>24.38719716024469</v>
       </c>
       <c r="V27" t="n">
-        <v>240.6489209154022</v>
+        <v>27.80847734536286</v>
       </c>
       <c r="W27" t="n">
-        <v>53.86414000697226</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
-        <v>217.3129144394706</v>
+        <v>4.47247086943122</v>
       </c>
       <c r="Y27" t="n">
-        <v>10.54384256398629</v>
+        <v>10.54384256398623</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>22.50238087092343</v>
+        <v>22.50238087092337</v>
       </c>
       <c r="T28" t="n">
-        <v>10.89776935871228</v>
+        <v>10.89776935871223</v>
       </c>
       <c r="U28" t="n">
-        <v>75.81581537059132</v>
+        <v>75.81581537059127</v>
       </c>
       <c r="V28" t="n">
-        <v>32.26857161441058</v>
+        <v>32.26857161441052</v>
       </c>
       <c r="W28" t="n">
-        <v>77.470263519296</v>
+        <v>77.47026351929594</v>
       </c>
       <c r="X28" t="n">
-        <v>9.079011838203201</v>
+        <v>9.079011838203144</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.300829244129091</v>
+        <v>4.300829244129034</v>
       </c>
     </row>
     <row r="29">
@@ -2789,10 +2789,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>161.246796807794</v>
+        <v>161.2467968077939</v>
       </c>
       <c r="C29" t="n">
-        <v>137.3650538111395</v>
+        <v>137.3650538111394</v>
       </c>
       <c r="D29" t="n">
         <v>124.9317160721879</v>
@@ -2804,13 +2804,13 @@
         <v>190.3588060699741</v>
       </c>
       <c r="G29" t="n">
-        <v>205.98554868639</v>
+        <v>205.9855486863899</v>
       </c>
       <c r="H29" t="n">
-        <v>134.0562093809436</v>
+        <v>134.0562093809435</v>
       </c>
       <c r="I29" t="n">
-        <v>27.69972896891998</v>
+        <v>27.69972896891994</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.39898314543821</v>
+        <v>14.39898314543819</v>
       </c>
       <c r="T29" t="n">
-        <v>9.572116788305236</v>
+        <v>9.572116788305209</v>
       </c>
       <c r="U29" t="n">
-        <v>37.30912346611285</v>
+        <v>37.30912346611282</v>
       </c>
       <c r="V29" t="n">
-        <v>108.0393400391127</v>
+        <v>108.0393400391126</v>
       </c>
       <c r="W29" t="n">
         <v>125.0560202557275</v>
       </c>
       <c r="X29" t="n">
-        <v>146.9422707246668</v>
+        <v>146.9422707246667</v>
       </c>
       <c r="Y29" t="n">
         <v>169.4451238484105</v>
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>60.4701979220082</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2883,7 +2883,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>148.7380872222379</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2916,25 +2916,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>134.3151594521598</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>2.104210934813207</v>
+        <v>2.104210934813179</v>
       </c>
       <c r="U30" t="n">
-        <v>237.2276407302841</v>
+        <v>24.38719716024469</v>
       </c>
       <c r="V30" t="n">
-        <v>27.80847734536289</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
-        <v>53.86414000697224</v>
+        <v>53.86414000697221</v>
       </c>
       <c r="X30" t="n">
-        <v>4.472470869431248</v>
+        <v>79.36559656151752</v>
       </c>
       <c r="Y30" t="n">
         <v>223.3842861340256</v>
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>22.5023808709234</v>
+        <v>22.50238087092337</v>
       </c>
       <c r="T31" t="n">
-        <v>10.89776935871225</v>
+        <v>10.89776935871223</v>
       </c>
       <c r="U31" t="n">
-        <v>75.8158153705913</v>
+        <v>75.81581537059127</v>
       </c>
       <c r="V31" t="n">
-        <v>32.26857161441055</v>
+        <v>32.26857161441052</v>
       </c>
       <c r="W31" t="n">
-        <v>77.47026351929597</v>
+        <v>77.47026351929594</v>
       </c>
       <c r="X31" t="n">
-        <v>9.079011838203172</v>
+        <v>9.079011838203144</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.300829244129062</v>
+        <v>4.300829244129034</v>
       </c>
     </row>
     <row r="32">
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>161.2467968077939</v>
+        <v>161.246796807794</v>
       </c>
       <c r="C32" t="n">
-        <v>137.3650538111394</v>
+        <v>137.3650538111395</v>
       </c>
       <c r="D32" t="n">
         <v>124.9317160721879</v>
       </c>
       <c r="E32" t="n">
-        <v>158.6384684915967</v>
+        <v>158.6384684915968</v>
       </c>
       <c r="F32" t="n">
         <v>190.3588060699741</v>
@@ -3044,10 +3044,10 @@
         <v>205.9855486863899</v>
       </c>
       <c r="H32" t="n">
-        <v>134.0562093809435</v>
+        <v>134.0562093809436</v>
       </c>
       <c r="I32" t="n">
-        <v>27.69972896891991</v>
+        <v>27.69972896891997</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.39898314543817</v>
+        <v>14.39898314543822</v>
       </c>
       <c r="T32" t="n">
-        <v>9.572116788305181</v>
+        <v>9.572116788305237</v>
       </c>
       <c r="U32" t="n">
-        <v>37.30912346611279</v>
+        <v>37.30912346611285</v>
       </c>
       <c r="V32" t="n">
-        <v>108.0393400391126</v>
+        <v>108.0393400391127</v>
       </c>
       <c r="W32" t="n">
         <v>125.0560202557275</v>
       </c>
       <c r="X32" t="n">
-        <v>146.9422707246667</v>
+        <v>146.9422707246668</v>
       </c>
       <c r="Y32" t="n">
         <v>169.4451238484105</v>
@@ -3159,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>2.10421093481315</v>
+        <v>2.104210934813207</v>
       </c>
       <c r="U33" t="n">
         <v>233.5954823044909</v>
@@ -3168,13 +3168,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
-        <v>53.86414000697218</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
-        <v>217.3129144394706</v>
+        <v>4.472470869431248</v>
       </c>
       <c r="Y33" t="n">
-        <v>10.5438425639862</v>
+        <v>10.54384256398626</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>22.50238087092334</v>
+        <v>22.5023808709234</v>
       </c>
       <c r="T34" t="n">
-        <v>10.8977693587122</v>
+        <v>10.89776935871225</v>
       </c>
       <c r="U34" t="n">
-        <v>75.81581537059124</v>
+        <v>75.8158153705913</v>
       </c>
       <c r="V34" t="n">
-        <v>32.26857161441049</v>
+        <v>32.26857161441055</v>
       </c>
       <c r="W34" t="n">
-        <v>77.47026351929591</v>
+        <v>77.47026351929597</v>
       </c>
       <c r="X34" t="n">
-        <v>9.079011838203115</v>
+        <v>9.079011838203172</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.300829244129005</v>
+        <v>4.300829244129062</v>
       </c>
     </row>
     <row r="35">
@@ -3269,13 +3269,13 @@
         <v>113.9704056025121</v>
       </c>
       <c r="D35" t="n">
-        <v>101.5370678635605</v>
+        <v>101.5370678635606</v>
       </c>
       <c r="E35" t="n">
         <v>135.2438202829694</v>
       </c>
       <c r="F35" t="n">
-        <v>166.9641578613467</v>
+        <v>166.9641578613468</v>
       </c>
       <c r="G35" t="n">
         <v>182.5909004777626</v>
@@ -3284,7 +3284,7 @@
         <v>110.6615611723162</v>
       </c>
       <c r="I35" t="n">
-        <v>4.305080760292583</v>
+        <v>4.305080760292611</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>13.91447525748547</v>
+        <v>13.91447525748549</v>
       </c>
       <c r="V35" t="n">
-        <v>84.64469183048527</v>
+        <v>84.6446918304853</v>
       </c>
       <c r="W35" t="n">
-        <v>101.6613720471001</v>
+        <v>101.6613720471002</v>
       </c>
       <c r="X35" t="n">
         <v>123.5476225160394</v>
       </c>
       <c r="Y35" t="n">
-        <v>146.0504756397831</v>
+        <v>146.0504756397832</v>
       </c>
     </row>
     <row r="36">
@@ -3345,16 +3345,16 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>181.4640911061007</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3390,28 +3390,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>134.3151594521598</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>191.4697362153245</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>214.9446545048526</v>
       </c>
       <c r="U36" t="n">
-        <v>0.9925489516173334</v>
+        <v>0.9925489516173618</v>
       </c>
       <c r="V36" t="n">
-        <v>4.413829136735501</v>
+        <v>4.413829136735529</v>
       </c>
       <c r="W36" t="n">
-        <v>30.46949179834485</v>
+        <v>30.46949179834488</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>174.2297158792391</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>52.42116716196391</v>
+        <v>52.42116716196394</v>
       </c>
       <c r="V37" t="n">
-        <v>8.87392340578316</v>
+        <v>8.873923405783188</v>
       </c>
       <c r="W37" t="n">
-        <v>54.07561531066858</v>
+        <v>54.07561531066861</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>137.8521485991666</v>
+        <v>137.8521485991665</v>
       </c>
       <c r="C38" t="n">
-        <v>113.9704056025121</v>
+        <v>113.970405602512</v>
       </c>
       <c r="D38" t="n">
         <v>101.5370678635605</v>
       </c>
       <c r="E38" t="n">
-        <v>135.2438202829694</v>
+        <v>135.2438202829693</v>
       </c>
       <c r="F38" t="n">
-        <v>166.9641578613467</v>
+        <v>166.9641578613466</v>
       </c>
       <c r="G38" t="n">
         <v>182.5909004777625</v>
       </c>
       <c r="H38" t="n">
-        <v>110.6615611723162</v>
+        <v>110.6615611723161</v>
       </c>
       <c r="I38" t="n">
-        <v>4.305080760292583</v>
+        <v>4.305080760292498</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3557,16 +3557,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>13.91447525748546</v>
+        <v>13.91447525748538</v>
       </c>
       <c r="V38" t="n">
-        <v>84.64469183048527</v>
+        <v>84.64469183048519</v>
       </c>
       <c r="W38" t="n">
         <v>101.6613720471001</v>
       </c>
       <c r="X38" t="n">
-        <v>123.5476225160394</v>
+        <v>123.5476225160393</v>
       </c>
       <c r="Y38" t="n">
         <v>146.0504756397831</v>
@@ -3582,16 +3582,16 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>28.74126889264572</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3624,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>6.037534323606007</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -3633,22 +3633,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>214.9446545048526</v>
       </c>
       <c r="U39" t="n">
-        <v>0.9925489516173334</v>
+        <v>237.2276407302841</v>
       </c>
       <c r="V39" t="n">
-        <v>4.413829136735501</v>
+        <v>4.413829136735416</v>
       </c>
       <c r="W39" t="n">
-        <v>30.46949179834485</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
-        <v>8.986029108105681</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>52.42116716196391</v>
+        <v>52.42116716196382</v>
       </c>
       <c r="V40" t="n">
-        <v>8.87392340578316</v>
+        <v>8.873923405783074</v>
       </c>
       <c r="W40" t="n">
-        <v>54.07561531066858</v>
+        <v>54.0756153106685</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>137.8521485991665</v>
+        <v>137.8521485991666</v>
       </c>
       <c r="C41" t="n">
-        <v>113.970405602512</v>
+        <v>113.9704056025121</v>
       </c>
       <c r="D41" t="n">
-        <v>101.5370678635605</v>
+        <v>101.5370678635606</v>
       </c>
       <c r="E41" t="n">
         <v>135.2438202829694</v>
       </c>
       <c r="F41" t="n">
-        <v>166.9641578613467</v>
+        <v>166.9641578613468</v>
       </c>
       <c r="G41" t="n">
-        <v>182.5909004777625</v>
+        <v>182.5909004777626</v>
       </c>
       <c r="H41" t="n">
-        <v>110.6615611723161</v>
+        <v>110.6615611723162</v>
       </c>
       <c r="I41" t="n">
-        <v>4.305080760292526</v>
+        <v>4.305080760292611</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>13.91447525748541</v>
+        <v>13.9144752574855</v>
       </c>
       <c r="V41" t="n">
-        <v>84.64469183048521</v>
+        <v>84.6446918304853</v>
       </c>
       <c r="W41" t="n">
-        <v>101.6613720471001</v>
+        <v>101.6613720471002</v>
       </c>
       <c r="X41" t="n">
-        <v>123.5476225160393</v>
+        <v>123.5476225160394</v>
       </c>
       <c r="Y41" t="n">
-        <v>146.0504756397831</v>
+        <v>146.0504756397832</v>
       </c>
     </row>
     <row r="42">
@@ -3822,13 +3822,13 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3861,31 +3861,31 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>6.037534323606007</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>134.3151594521598</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>109.3707639453383</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0.9925489516172765</v>
+        <v>0.9925489516173618</v>
       </c>
       <c r="V42" t="n">
-        <v>4.413829136735444</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>30.46949179834479</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
-        <v>8.986029108105681</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>52.42116716196385</v>
+        <v>52.42116716196394</v>
       </c>
       <c r="V43" t="n">
-        <v>8.873923405783103</v>
+        <v>8.873923405783188</v>
       </c>
       <c r="W43" t="n">
-        <v>54.07561531066852</v>
+        <v>54.07561531066861</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>137.8521485991665</v>
+        <v>137.8521485991666</v>
       </c>
       <c r="C44" t="n">
-        <v>113.970405602512</v>
+        <v>113.9704056025121</v>
       </c>
       <c r="D44" t="n">
-        <v>101.5370678635605</v>
+        <v>101.5370678635606</v>
       </c>
       <c r="E44" t="n">
         <v>135.2438202829694</v>
       </c>
       <c r="F44" t="n">
-        <v>166.9641578613467</v>
+        <v>166.9641578613473</v>
       </c>
       <c r="G44" t="n">
-        <v>182.5909004777625</v>
+        <v>182.5909004777626</v>
       </c>
       <c r="H44" t="n">
-        <v>110.6615611723161</v>
+        <v>110.6615611723162</v>
       </c>
       <c r="I44" t="n">
-        <v>4.305080760292526</v>
+        <v>4.305080760292611</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>13.91447525748541</v>
+        <v>13.91447525748549</v>
       </c>
       <c r="V44" t="n">
-        <v>84.64469183048521</v>
+        <v>84.6446918304853</v>
       </c>
       <c r="W44" t="n">
-        <v>101.6613720471001</v>
+        <v>101.6613720471002</v>
       </c>
       <c r="X44" t="n">
-        <v>123.5476225160393</v>
+        <v>123.5476225160394</v>
       </c>
       <c r="Y44" t="n">
-        <v>146.0504756397831</v>
+        <v>146.0504756397832</v>
       </c>
     </row>
     <row r="45">
@@ -4062,7 +4062,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4098,31 +4098,31 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>6.037534323606007</v>
       </c>
       <c r="R45" t="n">
-        <v>134.3151594521598</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>191.4697362153245</v>
       </c>
       <c r="T45" t="n">
-        <v>214.9446545048526</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0.9925489516172765</v>
+        <v>125.544139159433</v>
       </c>
       <c r="V45" t="n">
-        <v>4.413829136735444</v>
+        <v>4.413829136735529</v>
       </c>
       <c r="W45" t="n">
-        <v>30.46949179834479</v>
+        <v>30.46949179834488</v>
       </c>
       <c r="X45" t="n">
-        <v>24.35576108396009</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>52.42116716196385</v>
+        <v>52.42116716196394</v>
       </c>
       <c r="V46" t="n">
-        <v>8.873923405783103</v>
+        <v>8.873923405783188</v>
       </c>
       <c r="W46" t="n">
-        <v>54.07561531066852</v>
+        <v>54.07561531066861</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>252.7804635907265</v>
+        <v>12.11809517837054</v>
       </c>
       <c r="C11" t="n">
-        <v>252.7804635907265</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="D11" t="n">
-        <v>252.7804635907265</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="E11" t="n">
-        <v>167.3816583235892</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="F11" t="n">
-        <v>81.98285305645189</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="G11" t="n">
-        <v>81.98285305645189</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="H11" t="n">
-        <v>43.56028316785891</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="I11" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="J11" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="K11" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="L11" t="n">
-        <v>55.38741258664101</v>
+        <v>57.76854735444576</v>
       </c>
       <c r="M11" t="n">
-        <v>138.3667488501958</v>
+        <v>140.7478836180005</v>
       </c>
       <c r="N11" t="n">
-        <v>215.8463415097256</v>
+        <v>218.2274762775303</v>
       </c>
       <c r="O11" t="n">
-        <v>252.098765047738</v>
+        <v>254.4798998155428</v>
       </c>
       <c r="P11" t="n">
-        <v>252.098765047738</v>
+        <v>338.1792688578641</v>
       </c>
       <c r="Q11" t="n">
-        <v>328.2841766533309</v>
+        <v>338.1792688578641</v>
       </c>
       <c r="R11" t="n">
-        <v>338.1792688578638</v>
+        <v>338.1792688578641</v>
       </c>
       <c r="S11" t="n">
-        <v>338.1792688578638</v>
+        <v>314.8176678585581</v>
       </c>
       <c r="T11" t="n">
-        <v>338.1792688578638</v>
+        <v>314.8176678585581</v>
       </c>
       <c r="U11" t="n">
-        <v>338.1792688578638</v>
+        <v>268.3145109797828</v>
       </c>
       <c r="V11" t="n">
-        <v>338.1792688578638</v>
+        <v>182.9157057126454</v>
       </c>
       <c r="W11" t="n">
-        <v>338.1792688578638</v>
+        <v>182.9157057126454</v>
       </c>
       <c r="X11" t="n">
-        <v>252.7804635907265</v>
+        <v>97.51690044550796</v>
       </c>
       <c r="Y11" t="n">
-        <v>252.7804635907265</v>
+        <v>12.11809517837054</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>59.146850988625</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="C12" t="n">
-        <v>59.146850988625</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="D12" t="n">
-        <v>59.146850988625</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="E12" t="n">
-        <v>59.146850988625</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="F12" t="n">
-        <v>59.146850988625</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="G12" t="n">
-        <v>59.146850988625</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="H12" t="n">
-        <v>59.146850988625</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="I12" t="n">
-        <v>59.146850988625</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="J12" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="K12" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="L12" t="n">
-        <v>6.763585377157276</v>
+        <v>87.08116173089998</v>
       </c>
       <c r="M12" t="n">
-        <v>87.08116173089995</v>
+        <v>170.7805307732214</v>
       </c>
       <c r="N12" t="n">
-        <v>170.7805307732212</v>
+        <v>254.4798998155428</v>
       </c>
       <c r="O12" t="n">
-        <v>254.4798998155425</v>
+        <v>338.1792688578641</v>
       </c>
       <c r="P12" t="n">
-        <v>338.1792688578638</v>
+        <v>338.1792688578641</v>
       </c>
       <c r="Q12" t="n">
-        <v>332.0807493390699</v>
+        <v>338.1792688578641</v>
       </c>
       <c r="R12" t="n">
-        <v>332.0807493390699</v>
+        <v>338.1792688578641</v>
       </c>
       <c r="S12" t="n">
-        <v>332.0807493390699</v>
+        <v>252.7804635907267</v>
       </c>
       <c r="T12" t="n">
-        <v>321.1381101686781</v>
+        <v>173.1485724128856</v>
       </c>
       <c r="U12" t="n">
-        <v>287.6874041039111</v>
+        <v>139.6978663481185</v>
       </c>
       <c r="V12" t="n">
-        <v>250.7808594683176</v>
+        <v>102.7913217125249</v>
       </c>
       <c r="W12" t="n">
-        <v>165.3820542011803</v>
+        <v>39.56592590358856</v>
       </c>
       <c r="X12" t="n">
-        <v>144.5456562557623</v>
+        <v>26.23110498105727</v>
       </c>
       <c r="Y12" t="n">
-        <v>59.146850988625</v>
+        <v>6.763585377157283</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="C13" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="D13" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="E13" t="n">
-        <v>68.57453288595759</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="F13" t="n">
-        <v>96.1430925854676</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="G13" t="n">
-        <v>96.1430925854676</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="H13" t="n">
-        <v>134.0953589841143</v>
+        <v>44.71585177580388</v>
       </c>
       <c r="I13" t="n">
-        <v>134.0953589841143</v>
+        <v>50.39598994179325</v>
       </c>
       <c r="J13" t="n">
-        <v>134.0953589841143</v>
+        <v>50.39598994179325</v>
       </c>
       <c r="K13" t="n">
-        <v>217.7947280264356</v>
+        <v>50.39598994179325</v>
       </c>
       <c r="L13" t="n">
-        <v>217.7947280264356</v>
+        <v>134.0953589841146</v>
       </c>
       <c r="M13" t="n">
-        <v>217.7947280264356</v>
+        <v>217.794728026436</v>
       </c>
       <c r="N13" t="n">
-        <v>217.7947280264356</v>
+        <v>217.794728026436</v>
       </c>
       <c r="O13" t="n">
-        <v>301.4940970687568</v>
+        <v>217.794728026436</v>
       </c>
       <c r="P13" t="n">
-        <v>301.4940970687568</v>
+        <v>301.4940970687574</v>
       </c>
       <c r="Q13" t="n">
-        <v>301.4940970687568</v>
+        <v>301.4940970687574</v>
       </c>
       <c r="R13" t="n">
-        <v>301.4940970687568</v>
+        <v>301.4940970687574</v>
       </c>
       <c r="S13" t="n">
-        <v>269.9472458416881</v>
+        <v>269.9472458416886</v>
       </c>
       <c r="T13" t="n">
-        <v>250.1222244249337</v>
+        <v>250.1222244249341</v>
       </c>
       <c r="U13" t="n">
-        <v>164.7234191577963</v>
+        <v>164.7234191577967</v>
       </c>
       <c r="V13" t="n">
-        <v>123.3117287958921</v>
+        <v>123.3117287958924</v>
       </c>
       <c r="W13" t="n">
-        <v>37.91292352875477</v>
+        <v>37.91292352875494</v>
       </c>
       <c r="X13" t="n">
-        <v>19.92503092059536</v>
+        <v>19.92503092059545</v>
       </c>
       <c r="Y13" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>125.5340789079398</v>
+        <v>92.1623906442947</v>
       </c>
       <c r="C14" t="n">
-        <v>125.5340789079398</v>
+        <v>92.1623906442947</v>
       </c>
       <c r="D14" t="n">
-        <v>125.5340789079398</v>
+        <v>92.1623906442947</v>
       </c>
       <c r="E14" t="n">
-        <v>125.5340789079398</v>
+        <v>92.1623906442947</v>
       </c>
       <c r="F14" t="n">
-        <v>125.5340789079398</v>
+        <v>92.1623906442947</v>
       </c>
       <c r="G14" t="n">
-        <v>40.13527364080244</v>
+        <v>92.1623906442947</v>
       </c>
       <c r="H14" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="I14" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="J14" t="n">
-        <v>6.763585377157276</v>
+        <v>86.62431280449184</v>
       </c>
       <c r="K14" t="n">
-        <v>6.763585377157276</v>
+        <v>86.62431280449184</v>
       </c>
       <c r="L14" t="n">
-        <v>57.76854735444553</v>
+        <v>135.2481400139756</v>
       </c>
       <c r="M14" t="n">
-        <v>140.7478836180003</v>
+        <v>218.2274762775303</v>
       </c>
       <c r="N14" t="n">
-        <v>218.2274762775301</v>
+        <v>301.9268453198517</v>
       </c>
       <c r="O14" t="n">
-        <v>254.4798998155425</v>
+        <v>338.1792688578641</v>
       </c>
       <c r="P14" t="n">
-        <v>254.4798998155425</v>
+        <v>338.1792688578641</v>
       </c>
       <c r="Q14" t="n">
-        <v>338.1792688578638</v>
+        <v>338.1792688578641</v>
       </c>
       <c r="R14" t="n">
-        <v>338.1792688578638</v>
+        <v>338.1792688578641</v>
       </c>
       <c r="S14" t="n">
-        <v>314.8176678585578</v>
+        <v>314.8176678585581</v>
       </c>
       <c r="T14" t="n">
-        <v>296.3316894422144</v>
+        <v>314.8176678585581</v>
       </c>
       <c r="U14" t="n">
-        <v>296.3316894422144</v>
+        <v>268.3145109797828</v>
       </c>
       <c r="V14" t="n">
-        <v>210.9328841750771</v>
+        <v>182.9157057126454</v>
       </c>
       <c r="W14" t="n">
-        <v>125.5340789079398</v>
+        <v>182.9157057126454</v>
       </c>
       <c r="X14" t="n">
-        <v>125.5340789079398</v>
+        <v>177.5611959114321</v>
       </c>
       <c r="Y14" t="n">
-        <v>125.5340789079398</v>
+        <v>177.5611959114321</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>144.5456562557623</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="C15" t="n">
-        <v>59.146850988625</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="D15" t="n">
-        <v>59.146850988625</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="E15" t="n">
-        <v>59.146850988625</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="F15" t="n">
-        <v>59.146850988625</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="G15" t="n">
-        <v>59.146850988625</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="H15" t="n">
-        <v>59.146850988625</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="I15" t="n">
-        <v>59.146850988625</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="J15" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="K15" t="n">
-        <v>6.763585377157276</v>
+        <v>45.76878079825745</v>
       </c>
       <c r="L15" t="n">
-        <v>6.763585377157276</v>
+        <v>87.08116173089998</v>
       </c>
       <c r="M15" t="n">
-        <v>90.46295441947856</v>
+        <v>170.7805307732214</v>
       </c>
       <c r="N15" t="n">
-        <v>170.7805307732212</v>
+        <v>170.7805307732214</v>
       </c>
       <c r="O15" t="n">
-        <v>254.4798998155425</v>
+        <v>254.4798998155428</v>
       </c>
       <c r="P15" t="n">
-        <v>338.1792688578638</v>
+        <v>338.1792688578641</v>
       </c>
       <c r="Q15" t="n">
-        <v>332.0807493390699</v>
+        <v>338.1792688578641</v>
       </c>
       <c r="R15" t="n">
-        <v>332.0807493390699</v>
+        <v>338.1792688578641</v>
       </c>
       <c r="S15" t="n">
-        <v>332.0807493390699</v>
+        <v>252.7804635907267</v>
       </c>
       <c r="T15" t="n">
-        <v>321.1381101686781</v>
+        <v>173.1485724128856</v>
       </c>
       <c r="U15" t="n">
-        <v>287.687404103911</v>
+        <v>139.6978663481185</v>
       </c>
       <c r="V15" t="n">
-        <v>250.7808594683175</v>
+        <v>102.7913217125249</v>
       </c>
       <c r="W15" t="n">
-        <v>187.5554636593812</v>
+        <v>39.56592590358856</v>
       </c>
       <c r="X15" t="n">
-        <v>174.2206427368499</v>
+        <v>26.23110498105727</v>
       </c>
       <c r="Y15" t="n">
-        <v>144.5456562557623</v>
+        <v>6.763585377157283</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>32.99316122774187</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="C16" t="n">
-        <v>32.99316122774187</v>
+        <v>44.04130352380764</v>
       </c>
       <c r="D16" t="n">
-        <v>32.99316122774187</v>
+        <v>44.04130352380764</v>
       </c>
       <c r="E16" t="n">
-        <v>94.80410873654213</v>
+        <v>105.8522510326079</v>
       </c>
       <c r="F16" t="n">
-        <v>94.80410873654213</v>
+        <v>105.8522510326079</v>
       </c>
       <c r="G16" t="n">
-        <v>94.80410873654213</v>
+        <v>105.8522510326079</v>
       </c>
       <c r="H16" t="n">
-        <v>132.7563751351888</v>
+        <v>134.0953589841147</v>
       </c>
       <c r="I16" t="n">
-        <v>132.7563751351888</v>
+        <v>134.0953589841147</v>
       </c>
       <c r="J16" t="n">
-        <v>216.1719218732846</v>
+        <v>134.0953589841147</v>
       </c>
       <c r="K16" t="n">
-        <v>299.8712909156059</v>
+        <v>134.0953589841147</v>
       </c>
       <c r="L16" t="n">
-        <v>299.8712909156059</v>
+        <v>134.0953589841147</v>
       </c>
       <c r="M16" t="n">
-        <v>299.8712909156059</v>
+        <v>217.7947280264361</v>
       </c>
       <c r="N16" t="n">
-        <v>299.8712909156059</v>
+        <v>217.7947280264361</v>
       </c>
       <c r="O16" t="n">
-        <v>299.8712909156059</v>
+        <v>301.4940970687575</v>
       </c>
       <c r="P16" t="n">
-        <v>299.8712909156059</v>
+        <v>301.4940970687575</v>
       </c>
       <c r="Q16" t="n">
-        <v>301.4940970687572</v>
+        <v>301.4940970687575</v>
       </c>
       <c r="R16" t="n">
-        <v>301.4940970687572</v>
+        <v>301.4940970687575</v>
       </c>
       <c r="S16" t="n">
-        <v>269.9472458416884</v>
+        <v>269.9472458416886</v>
       </c>
       <c r="T16" t="n">
-        <v>250.1222244249339</v>
+        <v>250.1222244249341</v>
       </c>
       <c r="U16" t="n">
-        <v>164.7234191577965</v>
+        <v>164.7234191577967</v>
       </c>
       <c r="V16" t="n">
-        <v>123.3117287958922</v>
+        <v>123.3117287958924</v>
       </c>
       <c r="W16" t="n">
-        <v>37.91292352875489</v>
+        <v>37.91292352875494</v>
       </c>
       <c r="X16" t="n">
-        <v>19.92503092059542</v>
+        <v>19.92503092059545</v>
       </c>
       <c r="Y16" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>224.7243025594533</v>
+        <v>224.7243025594536</v>
       </c>
       <c r="C17" t="n">
-        <v>209.8024792656691</v>
+        <v>209.8024792656694</v>
       </c>
       <c r="D17" t="n">
-        <v>207.4395829809268</v>
+        <v>207.439582980927</v>
       </c>
       <c r="E17" t="n">
-        <v>171.029462030115</v>
+        <v>171.0294620301152</v>
       </c>
       <c r="F17" t="n">
-        <v>102.5785960506392</v>
+        <v>102.5785960506394</v>
       </c>
       <c r="G17" t="n">
-        <v>18.34314156973346</v>
+        <v>18.34314156973349</v>
       </c>
       <c r="H17" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="I17" t="n">
-        <v>90.46295441947856</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="J17" t="n">
-        <v>90.46295441947856</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="K17" t="n">
-        <v>90.46295441947856</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="L17" t="n">
-        <v>139.0867816289623</v>
+        <v>55.38741258664101</v>
       </c>
       <c r="M17" t="n">
-        <v>222.0661178925171</v>
+        <v>138.3667488501958</v>
       </c>
       <c r="N17" t="n">
-        <v>299.5457105520469</v>
+        <v>215.8463415097256</v>
       </c>
       <c r="O17" t="n">
-        <v>335.7981340900593</v>
+        <v>252.098765047738</v>
       </c>
       <c r="P17" t="n">
-        <v>335.7981340900593</v>
+        <v>335.7981340900594</v>
       </c>
       <c r="Q17" t="n">
-        <v>335.7981340900593</v>
+        <v>335.7981340900594</v>
       </c>
       <c r="R17" t="n">
-        <v>335.7981340900593</v>
+        <v>335.7981340900594</v>
       </c>
       <c r="S17" t="n">
-        <v>335.7981340900593</v>
+        <v>335.7981340900594</v>
       </c>
       <c r="T17" t="n">
-        <v>335.7981340900593</v>
+        <v>335.7981340900594</v>
       </c>
       <c r="U17" t="n">
-        <v>335.7981340900593</v>
+        <v>335.7981340900594</v>
       </c>
       <c r="V17" t="n">
-        <v>338.1792688578638</v>
+        <v>338.1792688578641</v>
       </c>
       <c r="W17" t="n">
-        <v>335.6908127917685</v>
+        <v>335.6908127917688</v>
       </c>
       <c r="X17" t="n">
-        <v>311.0950330196738</v>
+        <v>311.0950330196742</v>
       </c>
       <c r="Y17" t="n">
-        <v>263.769098577131</v>
+        <v>263.7690985771313</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>167.3816583235891</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="C18" t="n">
-        <v>167.3816583235891</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="D18" t="n">
-        <v>167.3816583235891</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="E18" t="n">
-        <v>167.3816583235891</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="F18" t="n">
-        <v>167.3816583235891</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="G18" t="n">
-        <v>167.3816583235891</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="H18" t="n">
-        <v>81.9828530564518</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="I18" t="n">
-        <v>59.146850988625</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="J18" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="K18" t="n">
-        <v>45.76878079825744</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="L18" t="n">
-        <v>45.76878079825744</v>
+        <v>87.08116173089998</v>
       </c>
       <c r="M18" t="n">
-        <v>87.08116173089995</v>
+        <v>170.7805307732214</v>
       </c>
       <c r="N18" t="n">
-        <v>170.7805307732212</v>
+        <v>170.7805307732214</v>
       </c>
       <c r="O18" t="n">
-        <v>254.4798998155425</v>
+        <v>254.4798998155428</v>
       </c>
       <c r="P18" t="n">
-        <v>338.1792688578638</v>
+        <v>338.1792688578641</v>
       </c>
       <c r="Q18" t="n">
-        <v>338.1792688578638</v>
+        <v>332.0807493390702</v>
       </c>
       <c r="R18" t="n">
-        <v>252.7804635907265</v>
+        <v>246.6819440719328</v>
       </c>
       <c r="S18" t="n">
-        <v>167.3816583235891</v>
+        <v>246.6819440719328</v>
       </c>
       <c r="T18" t="n">
-        <v>167.3816583235891</v>
+        <v>177.5611959114321</v>
       </c>
       <c r="U18" t="n">
-        <v>167.3816583235891</v>
+        <v>92.1623906442947</v>
       </c>
       <c r="V18" t="n">
-        <v>167.3816583235891</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="W18" t="n">
-        <v>167.3816583235891</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="X18" t="n">
-        <v>167.3816583235891</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="Y18" t="n">
-        <v>167.3816583235891</v>
+        <v>6.763585377157283</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="C19" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="D19" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="E19" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="F19" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="G19" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="H19" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="I19" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="J19" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="K19" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="L19" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="M19" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="N19" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="O19" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="P19" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="Q19" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="R19" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="S19" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="T19" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="U19" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="V19" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="W19" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="X19" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="Y19" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>224.7243025594535</v>
+        <v>224.7243025594539</v>
       </c>
       <c r="C20" t="n">
-        <v>209.8024792656694</v>
+        <v>209.8024792656697</v>
       </c>
       <c r="D20" t="n">
-        <v>207.4395829809272</v>
+        <v>207.4395829809275</v>
       </c>
       <c r="E20" t="n">
-        <v>171.0294620301154</v>
+        <v>171.0294620301152</v>
       </c>
       <c r="F20" t="n">
-        <v>102.5785960506396</v>
+        <v>102.5785960506394</v>
       </c>
       <c r="G20" t="n">
-        <v>18.34314156973346</v>
+        <v>18.34314156973347</v>
       </c>
       <c r="H20" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="I20" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="J20" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="K20" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="L20" t="n">
         <v>55.38741258664101</v>
       </c>
       <c r="M20" t="n">
-        <v>138.3667488501958</v>
+        <v>139.0867816289624</v>
       </c>
       <c r="N20" t="n">
-        <v>215.8463415097256</v>
+        <v>216.5663742884922</v>
       </c>
       <c r="O20" t="n">
-        <v>252.098765047738</v>
+        <v>252.8187978265046</v>
       </c>
       <c r="P20" t="n">
-        <v>252.098765047738</v>
+        <v>252.8187978265046</v>
       </c>
       <c r="Q20" t="n">
-        <v>252.098765047738</v>
+        <v>252.8187978265046</v>
       </c>
       <c r="R20" t="n">
-        <v>252.098765047738</v>
+        <v>252.8187978265046</v>
       </c>
       <c r="S20" t="n">
-        <v>252.098765047738</v>
+        <v>336.518166868826</v>
       </c>
       <c r="T20" t="n">
-        <v>252.098765047738</v>
+        <v>336.518166868826</v>
       </c>
       <c r="U20" t="n">
-        <v>335.7981340900593</v>
+        <v>336.518166868826</v>
       </c>
       <c r="V20" t="n">
-        <v>338.1792688578638</v>
+        <v>338.1792688578641</v>
       </c>
       <c r="W20" t="n">
-        <v>335.6908127917685</v>
+        <v>335.6908127917688</v>
       </c>
       <c r="X20" t="n">
-        <v>311.0950330196739</v>
+        <v>311.0950330196744</v>
       </c>
       <c r="Y20" t="n">
-        <v>263.7690985771311</v>
+        <v>263.7690985771315</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>315.343266790037</v>
+        <v>81.98285305645189</v>
       </c>
       <c r="C21" t="n">
-        <v>315.343266790037</v>
+        <v>81.98285305645189</v>
       </c>
       <c r="D21" t="n">
-        <v>229.9444615228997</v>
+        <v>81.98285305645189</v>
       </c>
       <c r="E21" t="n">
-        <v>144.5456562557623</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="F21" t="n">
-        <v>59.146850988625</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="G21" t="n">
-        <v>59.146850988625</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="H21" t="n">
-        <v>59.146850988625</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="I21" t="n">
-        <v>59.146850988625</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="J21" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="K21" t="n">
-        <v>45.76878079825744</v>
+        <v>45.76878079825745</v>
       </c>
       <c r="L21" t="n">
-        <v>129.4681498405787</v>
+        <v>45.76878079825745</v>
       </c>
       <c r="M21" t="n">
-        <v>213.1675188829</v>
+        <v>87.08116173089998</v>
       </c>
       <c r="N21" t="n">
-        <v>296.8668879252213</v>
+        <v>170.7805307732214</v>
       </c>
       <c r="O21" t="n">
-        <v>338.1792688578638</v>
+        <v>254.4798998155428</v>
       </c>
       <c r="P21" t="n">
-        <v>338.1792688578638</v>
+        <v>338.1792688578641</v>
       </c>
       <c r="Q21" t="n">
-        <v>332.0807493390699</v>
+        <v>338.1792688578641</v>
       </c>
       <c r="R21" t="n">
-        <v>332.0807493390699</v>
+        <v>252.7804635907267</v>
       </c>
       <c r="S21" t="n">
-        <v>332.0807493390699</v>
+        <v>252.7804635907267</v>
       </c>
       <c r="T21" t="n">
-        <v>332.0807493390699</v>
+        <v>252.7804635907267</v>
       </c>
       <c r="U21" t="n">
-        <v>332.0807493390699</v>
+        <v>167.3816583235893</v>
       </c>
       <c r="V21" t="n">
-        <v>332.0807493390699</v>
+        <v>167.3816583235893</v>
       </c>
       <c r="W21" t="n">
-        <v>332.0807493390699</v>
+        <v>167.3816583235893</v>
       </c>
       <c r="X21" t="n">
-        <v>332.0807493390699</v>
+        <v>167.3816583235893</v>
       </c>
       <c r="Y21" t="n">
-        <v>332.0807493390699</v>
+        <v>81.98285305645189</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="C22" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="D22" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="E22" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="F22" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="G22" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="H22" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="I22" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="J22" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="K22" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="L22" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="M22" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="N22" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="O22" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="P22" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="Q22" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="R22" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="S22" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="T22" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="U22" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="V22" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="W22" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="X22" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="Y22" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>224.7243025594533</v>
+        <v>224.7243025594537</v>
       </c>
       <c r="C23" t="n">
-        <v>209.8024792656691</v>
+        <v>209.8024792656695</v>
       </c>
       <c r="D23" t="n">
-        <v>207.4395829809268</v>
+        <v>207.4395829809272</v>
       </c>
       <c r="E23" t="n">
-        <v>171.029462030115</v>
+        <v>171.0294620301154</v>
       </c>
       <c r="F23" t="n">
-        <v>102.5785960506392</v>
+        <v>102.5785960506396</v>
       </c>
       <c r="G23" t="n">
-        <v>18.34314156973346</v>
+        <v>18.34314156973347</v>
       </c>
       <c r="H23" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="I23" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="J23" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="K23" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="L23" t="n">
         <v>55.38741258664101</v>
@@ -6002,37 +6002,37 @@
         <v>215.8463415097256</v>
       </c>
       <c r="O23" t="n">
-        <v>252.098765047738</v>
+        <v>254.4798998155428</v>
       </c>
       <c r="P23" t="n">
-        <v>252.098765047738</v>
+        <v>254.4798998155428</v>
       </c>
       <c r="Q23" t="n">
-        <v>252.098765047738</v>
+        <v>254.4798998155428</v>
       </c>
       <c r="R23" t="n">
-        <v>252.098765047738</v>
+        <v>338.1792688578641</v>
       </c>
       <c r="S23" t="n">
-        <v>323.7716912337951</v>
+        <v>338.1792688578641</v>
       </c>
       <c r="T23" t="n">
-        <v>323.7716912337951</v>
+        <v>338.1792688578641</v>
       </c>
       <c r="U23" t="n">
-        <v>323.7716912337951</v>
+        <v>338.1792688578641</v>
       </c>
       <c r="V23" t="n">
-        <v>338.1792688578638</v>
+        <v>338.1792688578641</v>
       </c>
       <c r="W23" t="n">
-        <v>335.6908127917685</v>
+        <v>335.6908127917688</v>
       </c>
       <c r="X23" t="n">
-        <v>311.0950330196738</v>
+        <v>311.0950330196742</v>
       </c>
       <c r="Y23" t="n">
-        <v>263.769098577131</v>
+        <v>263.7690985771313</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>332.0807493390699</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="C24" t="n">
-        <v>332.0807493390699</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="D24" t="n">
-        <v>315.343266790037</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="E24" t="n">
-        <v>229.9444615228997</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="F24" t="n">
-        <v>144.5456562557623</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="G24" t="n">
-        <v>59.146850988625</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="H24" t="n">
-        <v>59.146850988625</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="I24" t="n">
-        <v>59.146850988625</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="J24" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="K24" t="n">
-        <v>6.763585377157276</v>
+        <v>45.76878079825745</v>
       </c>
       <c r="L24" t="n">
-        <v>90.46295441947856</v>
+        <v>45.76878079825745</v>
       </c>
       <c r="M24" t="n">
-        <v>174.1623234617999</v>
+        <v>129.4681498405788</v>
       </c>
       <c r="N24" t="n">
-        <v>254.4798998155425</v>
+        <v>213.1675188829002</v>
       </c>
       <c r="O24" t="n">
-        <v>338.1792688578638</v>
+        <v>254.4798998155428</v>
       </c>
       <c r="P24" t="n">
-        <v>338.1792688578638</v>
+        <v>338.1792688578641</v>
       </c>
       <c r="Q24" t="n">
-        <v>332.0807493390699</v>
+        <v>338.1792688578641</v>
       </c>
       <c r="R24" t="n">
-        <v>332.0807493390699</v>
+        <v>252.7804635907267</v>
       </c>
       <c r="S24" t="n">
-        <v>332.0807493390699</v>
+        <v>167.3816583235893</v>
       </c>
       <c r="T24" t="n">
-        <v>332.0807493390699</v>
+        <v>81.98285305645189</v>
       </c>
       <c r="U24" t="n">
-        <v>332.0807493390699</v>
+        <v>81.98285305645189</v>
       </c>
       <c r="V24" t="n">
-        <v>332.0807493390699</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="W24" t="n">
-        <v>332.0807493390699</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="X24" t="n">
-        <v>332.0807493390699</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="Y24" t="n">
-        <v>332.0807493390699</v>
+        <v>6.763585377157283</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="C25" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="D25" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="E25" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="F25" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="G25" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="H25" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="I25" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="J25" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="K25" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="L25" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="M25" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="N25" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="O25" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="P25" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="Q25" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="R25" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="S25" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="T25" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="U25" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="V25" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="W25" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="X25" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="Y25" t="n">
-        <v>6.763585377157276</v>
+        <v>6.763585377157283</v>
       </c>
     </row>
     <row r="26">
@@ -6203,70 +6203,70 @@
         <v>1025.021363618494</v>
       </c>
       <c r="C26" t="n">
-        <v>886.2687840112826</v>
+        <v>886.2687840112829</v>
       </c>
       <c r="D26" t="n">
-        <v>760.0751314131129</v>
+        <v>760.0751314131135</v>
       </c>
       <c r="E26" t="n">
-        <v>599.8342541488737</v>
+        <v>599.8342541488742</v>
       </c>
       <c r="F26" t="n">
-        <v>407.5526318559705</v>
+        <v>407.5526318559712</v>
       </c>
       <c r="G26" t="n">
-        <v>199.4864210616372</v>
+        <v>199.4864210616379</v>
       </c>
       <c r="H26" t="n">
-        <v>64.07610855563388</v>
+        <v>64.07610855563384</v>
       </c>
       <c r="I26" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460359</v>
       </c>
       <c r="J26" t="n">
-        <v>171.8183046963237</v>
+        <v>171.8183046963238</v>
       </c>
       <c r="K26" t="n">
-        <v>377.4043607994712</v>
+        <v>377.4043607994723</v>
       </c>
       <c r="L26" t="n">
-        <v>636.7402271432939</v>
+        <v>636.740227143295</v>
       </c>
       <c r="M26" t="n">
-        <v>930.4316025411881</v>
+        <v>930.4316025411888</v>
       </c>
       <c r="N26" t="n">
-        <v>1218.623234335057</v>
+        <v>1218.623234335058</v>
       </c>
       <c r="O26" t="n">
-        <v>1465.587697007408</v>
+        <v>1465.587697007409</v>
       </c>
       <c r="P26" t="n">
         <v>1663.092768286575</v>
       </c>
       <c r="Q26" t="n">
-        <v>1786.29241320021</v>
+        <v>1786.292413200211</v>
       </c>
       <c r="R26" t="n">
-        <v>1804.829217230179</v>
+        <v>1804.82921723018</v>
       </c>
       <c r="S26" t="n">
-        <v>1790.284789810544</v>
+        <v>1790.284789810545</v>
       </c>
       <c r="T26" t="n">
-        <v>1780.615984973872</v>
+        <v>1780.615984973873</v>
       </c>
       <c r="U26" t="n">
-        <v>1742.930001674768</v>
+        <v>1742.930001674769</v>
       </c>
       <c r="V26" t="n">
         <v>1633.799355170614</v>
       </c>
       <c r="W26" t="n">
-        <v>1507.480142791091</v>
+        <v>1507.480142791092</v>
       </c>
       <c r="X26" t="n">
-        <v>1359.053606705569</v>
+        <v>1359.05360670557</v>
       </c>
       <c r="Y26" t="n">
         <v>1187.896915949599</v>
@@ -6279,34 +6279,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>209.6597882231891</v>
+        <v>142.1021808505166</v>
       </c>
       <c r="C27" t="n">
-        <v>209.6597882231891</v>
+        <v>36.09658434460359</v>
       </c>
       <c r="D27" t="n">
-        <v>209.6597882231891</v>
+        <v>36.09658434460359</v>
       </c>
       <c r="E27" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460359</v>
       </c>
       <c r="F27" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460359</v>
       </c>
       <c r="G27" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460359</v>
       </c>
       <c r="H27" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460359</v>
       </c>
       <c r="I27" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460359</v>
       </c>
       <c r="J27" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460359</v>
       </c>
       <c r="K27" t="n">
-        <v>75.10177976570374</v>
+        <v>75.10177976570375</v>
       </c>
       <c r="L27" t="n">
         <v>193.8356208840663</v>
@@ -6324,31 +6324,31 @@
         <v>801.8233632992858</v>
       </c>
       <c r="Q27" t="n">
-        <v>801.8233632992858</v>
+        <v>795.7248437804918</v>
       </c>
       <c r="R27" t="n">
-        <v>764.0650670321683</v>
+        <v>660.0529655459869</v>
       </c>
       <c r="S27" t="n">
-        <v>764.0650670321683</v>
+        <v>660.0529655459869</v>
       </c>
       <c r="T27" t="n">
-        <v>761.9396014414478</v>
+        <v>657.9274999552665</v>
       </c>
       <c r="U27" t="n">
-        <v>737.3060689563522</v>
+        <v>633.2939674701709</v>
       </c>
       <c r="V27" t="n">
-        <v>494.2263508599863</v>
+        <v>605.2045964142487</v>
       </c>
       <c r="W27" t="n">
-        <v>439.8181286307213</v>
+        <v>335.8060271445401</v>
       </c>
       <c r="X27" t="n">
-        <v>220.3101342474177</v>
+        <v>331.2883798016802</v>
       </c>
       <c r="Y27" t="n">
-        <v>209.6597882231891</v>
+        <v>320.6380337774517</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460359</v>
       </c>
       <c r="C28" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460359</v>
       </c>
       <c r="D28" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460359</v>
       </c>
       <c r="E28" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460359</v>
       </c>
       <c r="F28" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460359</v>
       </c>
       <c r="G28" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460359</v>
       </c>
       <c r="H28" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460359</v>
       </c>
       <c r="I28" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460359</v>
       </c>
       <c r="J28" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460359</v>
       </c>
       <c r="K28" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460359</v>
       </c>
       <c r="L28" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460359</v>
       </c>
       <c r="M28" t="n">
-        <v>36.09658434460358</v>
+        <v>117.3055954998835</v>
       </c>
       <c r="N28" t="n">
-        <v>36.09658434460358</v>
+        <v>117.3055954998835</v>
       </c>
       <c r="O28" t="n">
-        <v>185.5578703684214</v>
+        <v>117.3055954998835</v>
       </c>
       <c r="P28" t="n">
-        <v>185.5578703684214</v>
+        <v>270.7780407246698</v>
       </c>
       <c r="Q28" t="n">
-        <v>270.7780407246701</v>
+        <v>270.7780407246698</v>
       </c>
       <c r="R28" t="n">
-        <v>270.7780407246701</v>
+        <v>270.7780407246698</v>
       </c>
       <c r="S28" t="n">
-        <v>248.0483630772727</v>
+        <v>248.0483630772725</v>
       </c>
       <c r="T28" t="n">
-        <v>237.0405152401896</v>
+        <v>237.0405152401894</v>
       </c>
       <c r="U28" t="n">
-        <v>160.4588835527236</v>
+        <v>160.4588835527234</v>
       </c>
       <c r="V28" t="n">
-        <v>127.8643667704907</v>
+        <v>127.8643667704906</v>
       </c>
       <c r="W28" t="n">
-        <v>49.61157533685842</v>
+        <v>49.61157533685832</v>
       </c>
       <c r="X28" t="n">
-        <v>40.44085630837034</v>
+        <v>40.44085630837029</v>
       </c>
       <c r="Y28" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460359</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1025.021363618494</v>
+        <v>1025.021363618495</v>
       </c>
       <c r="C29" t="n">
-        <v>886.268784011282</v>
+        <v>886.2687840112836</v>
       </c>
       <c r="D29" t="n">
-        <v>760.0751314131124</v>
+        <v>760.075131413114</v>
       </c>
       <c r="E29" t="n">
-        <v>599.8342541488732</v>
+        <v>599.8342541488748</v>
       </c>
       <c r="F29" t="n">
-        <v>407.55263185597</v>
+        <v>407.5526318559716</v>
       </c>
       <c r="G29" t="n">
-        <v>199.4864210616371</v>
+        <v>199.486421061638</v>
       </c>
       <c r="H29" t="n">
-        <v>64.07610855563348</v>
+        <v>64.07610855563439</v>
       </c>
       <c r="I29" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460359</v>
       </c>
       <c r="J29" t="n">
-        <v>171.8183046963237</v>
+        <v>171.8183046963247</v>
       </c>
       <c r="K29" t="n">
-        <v>377.4043607994712</v>
+        <v>377.4043607994723</v>
       </c>
       <c r="L29" t="n">
-        <v>636.7402271432939</v>
+        <v>636.740227143295</v>
       </c>
       <c r="M29" t="n">
-        <v>930.4316025411879</v>
+        <v>930.4316025411888</v>
       </c>
       <c r="N29" t="n">
-        <v>1218.623234335057</v>
+        <v>1218.623234335058</v>
       </c>
       <c r="O29" t="n">
-        <v>1465.587697007408</v>
+        <v>1465.587697007409</v>
       </c>
       <c r="P29" t="n">
         <v>1663.092768286575</v>
       </c>
       <c r="Q29" t="n">
-        <v>1786.29241320021</v>
+        <v>1786.292413200211</v>
       </c>
       <c r="R29" t="n">
-        <v>1804.829217230179</v>
+        <v>1804.82921723018</v>
       </c>
       <c r="S29" t="n">
-        <v>1790.284789810544</v>
+        <v>1790.284789810545</v>
       </c>
       <c r="T29" t="n">
-        <v>1780.615984973872</v>
+        <v>1780.615984973873</v>
       </c>
       <c r="U29" t="n">
-        <v>1742.930001674768</v>
+        <v>1742.930001674769</v>
       </c>
       <c r="V29" t="n">
-        <v>1633.799355170614</v>
+        <v>1633.799355170615</v>
       </c>
       <c r="W29" t="n">
-        <v>1507.480142791091</v>
+        <v>1507.480142791092</v>
       </c>
       <c r="X29" t="n">
-        <v>1359.053606705569</v>
+        <v>1359.05360670557</v>
       </c>
       <c r="Y29" t="n">
-        <v>1187.896915949599</v>
+        <v>1187.8969159496</v>
       </c>
     </row>
     <row r="30">
@@ -6516,34 +6516,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>247.4180844903067</v>
+        <v>36.09658434460359</v>
       </c>
       <c r="C30" t="n">
-        <v>186.3370764882783</v>
+        <v>36.09658434460359</v>
       </c>
       <c r="D30" t="n">
-        <v>186.3370764882783</v>
+        <v>36.09658434460359</v>
       </c>
       <c r="E30" t="n">
-        <v>186.3370764882783</v>
+        <v>36.09658434460359</v>
       </c>
       <c r="F30" t="n">
-        <v>186.3370764882783</v>
+        <v>36.09658434460359</v>
       </c>
       <c r="G30" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460359</v>
       </c>
       <c r="H30" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460359</v>
       </c>
       <c r="I30" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460359</v>
       </c>
       <c r="J30" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460359</v>
       </c>
       <c r="K30" t="n">
-        <v>75.10177976570374</v>
+        <v>75.10177976570375</v>
       </c>
       <c r="L30" t="n">
         <v>193.8356208840663</v>
@@ -6564,28 +6564,28 @@
         <v>801.8233632992858</v>
       </c>
       <c r="R30" t="n">
-        <v>801.8233632992858</v>
+        <v>666.1514850647809</v>
       </c>
       <c r="S30" t="n">
-        <v>801.8233632992858</v>
+        <v>666.1514850647809</v>
       </c>
       <c r="T30" t="n">
-        <v>799.6978977085654</v>
+        <v>664.0260194740605</v>
       </c>
       <c r="U30" t="n">
-        <v>560.0740181830259</v>
+        <v>639.3924869889648</v>
       </c>
       <c r="V30" t="n">
-        <v>531.9846471271038</v>
+        <v>396.3127688925989</v>
       </c>
       <c r="W30" t="n">
-        <v>477.5764248978389</v>
+        <v>341.904546663334</v>
       </c>
       <c r="X30" t="n">
-        <v>473.0587775549791</v>
+        <v>261.7372774092759</v>
       </c>
       <c r="Y30" t="n">
-        <v>247.4180844903067</v>
+        <v>36.09658434460359</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460359</v>
       </c>
       <c r="C31" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460359</v>
       </c>
       <c r="D31" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460359</v>
       </c>
       <c r="E31" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460359</v>
       </c>
       <c r="F31" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460359</v>
       </c>
       <c r="G31" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460359</v>
       </c>
       <c r="H31" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460359</v>
       </c>
       <c r="I31" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460359</v>
       </c>
       <c r="J31" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460359</v>
       </c>
       <c r="K31" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460359</v>
       </c>
       <c r="L31" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460359</v>
       </c>
       <c r="M31" t="n">
-        <v>222.691844521636</v>
+        <v>185.557870368421</v>
       </c>
       <c r="N31" t="n">
-        <v>270.7780407246699</v>
+        <v>185.557870368421</v>
       </c>
       <c r="O31" t="n">
-        <v>270.7780407246699</v>
+        <v>185.557870368421</v>
       </c>
       <c r="P31" t="n">
-        <v>270.7780407246699</v>
+        <v>185.557870368421</v>
       </c>
       <c r="Q31" t="n">
-        <v>270.7780407246699</v>
+        <v>270.7780407246698</v>
       </c>
       <c r="R31" t="n">
-        <v>270.7780407246699</v>
+        <v>270.7780407246698</v>
       </c>
       <c r="S31" t="n">
-        <v>248.0483630772726</v>
+        <v>248.0483630772725</v>
       </c>
       <c r="T31" t="n">
-        <v>237.0405152401895</v>
+        <v>237.0405152401894</v>
       </c>
       <c r="U31" t="n">
-        <v>160.4588835527235</v>
+        <v>160.4588835527234</v>
       </c>
       <c r="V31" t="n">
         <v>127.8643667704906</v>
       </c>
       <c r="W31" t="n">
-        <v>49.61157533685836</v>
+        <v>49.61157533685832</v>
       </c>
       <c r="X31" t="n">
-        <v>40.44085630837031</v>
+        <v>40.44085630837029</v>
       </c>
       <c r="Y31" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460359</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1025.021363618494</v>
+        <v>1025.021363618495</v>
       </c>
       <c r="C32" t="n">
-        <v>886.2687840112822</v>
+        <v>886.2687840112837</v>
       </c>
       <c r="D32" t="n">
-        <v>760.0751314131128</v>
+        <v>760.0751314131141</v>
       </c>
       <c r="E32" t="n">
-        <v>599.8342541488737</v>
+        <v>599.8342541488748</v>
       </c>
       <c r="F32" t="n">
-        <v>407.5526318559706</v>
+        <v>407.5526318559719</v>
       </c>
       <c r="G32" t="n">
-        <v>199.4864210616374</v>
+        <v>199.4864210616386</v>
       </c>
       <c r="H32" t="n">
-        <v>64.07610855563379</v>
+        <v>64.07610855563387</v>
       </c>
       <c r="I32" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460359</v>
       </c>
       <c r="J32" t="n">
-        <v>171.8183046963238</v>
+        <v>171.8183046963237</v>
       </c>
       <c r="K32" t="n">
-        <v>377.4043607994713</v>
+        <v>377.4043607994712</v>
       </c>
       <c r="L32" t="n">
-        <v>636.7402271432941</v>
+        <v>636.7402271432939</v>
       </c>
       <c r="M32" t="n">
-        <v>930.4316025411878</v>
+        <v>930.4316025411888</v>
       </c>
       <c r="N32" t="n">
-        <v>1218.623234335057</v>
+        <v>1218.623234335058</v>
       </c>
       <c r="O32" t="n">
-        <v>1465.587697007408</v>
+        <v>1465.587697007409</v>
       </c>
       <c r="P32" t="n">
-        <v>1663.092768286574</v>
+        <v>1663.092768286575</v>
       </c>
       <c r="Q32" t="n">
-        <v>1786.29241320021</v>
+        <v>1786.292413200211</v>
       </c>
       <c r="R32" t="n">
-        <v>1804.829217230179</v>
+        <v>1804.82921723018</v>
       </c>
       <c r="S32" t="n">
-        <v>1790.284789810544</v>
+        <v>1790.284789810546</v>
       </c>
       <c r="T32" t="n">
-        <v>1780.615984973872</v>
+        <v>1780.615984973874</v>
       </c>
       <c r="U32" t="n">
-        <v>1742.930001674768</v>
+        <v>1742.93000167477</v>
       </c>
       <c r="V32" t="n">
-        <v>1633.799355170614</v>
+        <v>1633.799355170615</v>
       </c>
       <c r="W32" t="n">
-        <v>1507.480142791091</v>
+        <v>1507.480142791093</v>
       </c>
       <c r="X32" t="n">
-        <v>1359.053606705569</v>
+        <v>1359.053606705571</v>
       </c>
       <c r="Y32" t="n">
-        <v>1187.896915949599</v>
+        <v>1187.8969159496</v>
       </c>
     </row>
     <row r="33">
@@ -6753,34 +6753,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460359</v>
       </c>
       <c r="C33" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460359</v>
       </c>
       <c r="D33" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460359</v>
       </c>
       <c r="E33" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460359</v>
       </c>
       <c r="F33" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460359</v>
       </c>
       <c r="G33" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460359</v>
       </c>
       <c r="H33" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460359</v>
       </c>
       <c r="I33" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460359</v>
       </c>
       <c r="J33" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460359</v>
       </c>
       <c r="K33" t="n">
-        <v>75.10177976570374</v>
+        <v>75.10177976570375</v>
       </c>
       <c r="L33" t="n">
         <v>193.8356208840663</v>
@@ -6813,16 +6813,16 @@
         <v>563.7428650777665</v>
       </c>
       <c r="V33" t="n">
-        <v>320.6631469814005</v>
+        <v>320.6631469814006</v>
       </c>
       <c r="W33" t="n">
-        <v>266.2549247521357</v>
+        <v>51.26457771169198</v>
       </c>
       <c r="X33" t="n">
-        <v>46.74693036883207</v>
+        <v>46.74693036883214</v>
       </c>
       <c r="Y33" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460359</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>70.96787202062418</v>
+        <v>36.09658434460359</v>
       </c>
       <c r="C34" t="n">
-        <v>116.8873019927106</v>
+        <v>36.09658434460359</v>
       </c>
       <c r="D34" t="n">
-        <v>183.868517378846</v>
+        <v>36.09658434460359</v>
       </c>
       <c r="E34" t="n">
-        <v>254.3211767130823</v>
+        <v>36.09658434460359</v>
       </c>
       <c r="F34" t="n">
-        <v>261.2184455169717</v>
+        <v>36.09658434460359</v>
       </c>
       <c r="G34" t="n">
-        <v>261.2184455169717</v>
+        <v>36.09658434460359</v>
       </c>
       <c r="H34" t="n">
-        <v>261.2184455169717</v>
+        <v>36.09658434460359</v>
       </c>
       <c r="I34" t="n">
-        <v>261.2184455169717</v>
+        <v>36.09658434460359</v>
       </c>
       <c r="J34" t="n">
-        <v>261.2184455169717</v>
+        <v>36.09658434460359</v>
       </c>
       <c r="K34" t="n">
-        <v>261.2184455169717</v>
+        <v>36.09658434460359</v>
       </c>
       <c r="L34" t="n">
-        <v>261.2184455169717</v>
+        <v>36.09658434460359</v>
       </c>
       <c r="M34" t="n">
-        <v>261.2184455169717</v>
+        <v>36.09658434460359</v>
       </c>
       <c r="N34" t="n">
-        <v>261.2184455169717</v>
+        <v>86.84593471554248</v>
       </c>
       <c r="O34" t="n">
-        <v>261.2184455169717</v>
+        <v>261.2184455169722</v>
       </c>
       <c r="P34" t="n">
-        <v>261.2184455169717</v>
+        <v>261.2184455169722</v>
       </c>
       <c r="Q34" t="n">
-        <v>261.2184455169717</v>
+        <v>261.2184455169722</v>
       </c>
       <c r="R34" t="n">
-        <v>270.7780407246696</v>
+        <v>270.7780407246699</v>
       </c>
       <c r="S34" t="n">
-        <v>248.0483630772723</v>
+        <v>248.0483630772726</v>
       </c>
       <c r="T34" t="n">
-        <v>237.0405152401892</v>
+        <v>237.0405152401895</v>
       </c>
       <c r="U34" t="n">
-        <v>160.4588835527233</v>
+        <v>160.4588835527236</v>
       </c>
       <c r="V34" t="n">
-        <v>127.8643667704905</v>
+        <v>127.8643667704907</v>
       </c>
       <c r="W34" t="n">
-        <v>49.61157533685824</v>
+        <v>49.61157533685837</v>
       </c>
       <c r="X34" t="n">
-        <v>40.44085630837025</v>
+        <v>40.44085630837032</v>
       </c>
       <c r="Y34" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460359</v>
       </c>
     </row>
     <row r="35">
@@ -6911,61 +6911,61 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>852.8410737358913</v>
+        <v>852.8410737358909</v>
       </c>
       <c r="C35" t="n">
-        <v>737.7194519151717</v>
+        <v>737.7194519151716</v>
       </c>
       <c r="D35" t="n">
-        <v>635.1567571034943</v>
+        <v>635.1567571034942</v>
       </c>
       <c r="E35" t="n">
-        <v>498.5468376257475</v>
+        <v>498.5468376257473</v>
       </c>
       <c r="F35" t="n">
-        <v>329.8961731193366</v>
+        <v>329.8961731193364</v>
       </c>
       <c r="G35" t="n">
         <v>145.4609201114956</v>
       </c>
       <c r="H35" t="n">
-        <v>33.68156539198427</v>
+        <v>33.6815653919843</v>
       </c>
       <c r="I35" t="n">
         <v>29.33299896744631</v>
       </c>
       <c r="J35" t="n">
-        <v>188.2154210457076</v>
+        <v>188.2154210457075</v>
       </c>
       <c r="K35" t="n">
-        <v>188.2154210457076</v>
+        <v>416.9621788753961</v>
       </c>
       <c r="L35" t="n">
-        <v>236.8392482551913</v>
+        <v>465.5860060848799</v>
       </c>
       <c r="M35" t="n">
-        <v>553.6913253796262</v>
+        <v>782.4380832093148</v>
       </c>
       <c r="N35" t="n">
-        <v>765.2111440523526</v>
+        <v>859.9176758688445</v>
       </c>
       <c r="O35" t="n">
-        <v>1035.336308451245</v>
+        <v>1057.926322969922</v>
       </c>
       <c r="P35" t="n">
-        <v>1256.002081456953</v>
+        <v>1278.592095975629</v>
       </c>
       <c r="Q35" t="n">
-        <v>1402.362428097129</v>
+        <v>1424.952442615806</v>
       </c>
       <c r="R35" t="n">
-        <v>1444.059933853639</v>
+        <v>1466.649948372316</v>
       </c>
       <c r="S35" t="n">
-        <v>1452.965642266196</v>
+        <v>1466.649948372316</v>
       </c>
       <c r="T35" t="n">
-        <v>1466.649948372315</v>
+        <v>1466.649948372316</v>
       </c>
       <c r="U35" t="n">
         <v>1452.594922859704</v>
@@ -6974,13 +6974,13 @@
         <v>1367.095234142042</v>
       </c>
       <c r="W35" t="n">
-        <v>1264.406979549012</v>
+        <v>1264.406979549011</v>
       </c>
       <c r="X35" t="n">
         <v>1139.611401249982</v>
       </c>
       <c r="Y35" t="n">
-        <v>992.085668280504</v>
+        <v>992.0856682805036</v>
       </c>
     </row>
     <row r="36">
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>363.3239191287878</v>
+        <v>212.6300606907803</v>
       </c>
       <c r="C36" t="n">
-        <v>363.3239191287878</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="D36" t="n">
-        <v>363.3239191287878</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="E36" t="n">
-        <v>189.7607152502022</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="F36" t="n">
         <v>29.33299896744631</v>
@@ -7038,28 +7038,28 @@
         <v>795.0597779221285</v>
       </c>
       <c r="R36" t="n">
-        <v>795.0597779221285</v>
+        <v>659.3878996876236</v>
       </c>
       <c r="S36" t="n">
-        <v>795.0597779221285</v>
+        <v>465.9841257327504</v>
       </c>
       <c r="T36" t="n">
-        <v>795.0597779221285</v>
+        <v>248.8683131015862</v>
       </c>
       <c r="U36" t="n">
-        <v>794.0572032235252</v>
+        <v>247.8657384029828</v>
       </c>
       <c r="V36" t="n">
-        <v>789.5987899540954</v>
+        <v>243.4073251335529</v>
       </c>
       <c r="W36" t="n">
-        <v>758.8215255113229</v>
+        <v>212.6300606907803</v>
       </c>
       <c r="X36" t="n">
-        <v>539.3135311280192</v>
+        <v>212.6300606907803</v>
       </c>
       <c r="Y36" t="n">
-        <v>363.3239191287878</v>
+        <v>212.6300606907803</v>
       </c>
     </row>
     <row r="37">
@@ -7078,58 +7078,58 @@
         <v>29.33299896744631</v>
       </c>
       <c r="E37" t="n">
-        <v>29.33299896744631</v>
+        <v>100.7768585156458</v>
       </c>
       <c r="F37" t="n">
-        <v>29.33299896744631</v>
+        <v>100.7768585156458</v>
       </c>
       <c r="G37" t="n">
-        <v>29.33299896744631</v>
+        <v>100.7768585156458</v>
       </c>
       <c r="H37" t="n">
-        <v>29.33299896744631</v>
+        <v>100.7768585156458</v>
       </c>
       <c r="I37" t="n">
-        <v>29.33299896744631</v>
+        <v>100.7768585156458</v>
       </c>
       <c r="J37" t="n">
-        <v>29.33299896744631</v>
+        <v>100.7768585156458</v>
       </c>
       <c r="K37" t="n">
-        <v>29.33299896744631</v>
+        <v>100.7768585156458</v>
       </c>
       <c r="L37" t="n">
-        <v>29.33299896744631</v>
+        <v>100.7768585156458</v>
       </c>
       <c r="M37" t="n">
-        <v>29.33299896744631</v>
+        <v>100.7768585156458</v>
       </c>
       <c r="N37" t="n">
-        <v>29.33299896744631</v>
+        <v>100.7768585156458</v>
       </c>
       <c r="O37" t="n">
-        <v>29.33299896744631</v>
+        <v>100.7768585156458</v>
       </c>
       <c r="P37" t="n">
-        <v>37.48819342851063</v>
+        <v>100.7768585156458</v>
       </c>
       <c r="Q37" t="n">
-        <v>145.8690655113005</v>
+        <v>100.7768585156458</v>
       </c>
       <c r="R37" t="n">
-        <v>145.8690655113005</v>
+        <v>133.4971554498846</v>
       </c>
       <c r="S37" t="n">
-        <v>145.8690655113005</v>
+        <v>133.4971554498846</v>
       </c>
       <c r="T37" t="n">
-        <v>145.8690655113005</v>
+        <v>145.8690655113006</v>
       </c>
       <c r="U37" t="n">
-        <v>92.91839161032686</v>
+        <v>92.91839161032692</v>
       </c>
       <c r="V37" t="n">
-        <v>83.95483261458629</v>
+        <v>83.95483261458632</v>
       </c>
       <c r="W37" t="n">
         <v>29.33299896744631</v>
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>852.8410737358899</v>
+        <v>852.8410737358918</v>
       </c>
       <c r="C38" t="n">
-        <v>737.7194519151708</v>
+        <v>737.7194519151726</v>
       </c>
       <c r="D38" t="n">
-        <v>635.1567571034934</v>
+        <v>635.1567571034954</v>
       </c>
       <c r="E38" t="n">
-        <v>498.5468376257465</v>
+        <v>498.5468376257485</v>
       </c>
       <c r="F38" t="n">
-        <v>329.8961731193358</v>
+        <v>329.8961731193377</v>
       </c>
       <c r="G38" t="n">
-        <v>145.4609201114955</v>
+        <v>145.4609201114963</v>
       </c>
       <c r="H38" t="n">
-        <v>33.68156539198424</v>
+        <v>33.68156539198419</v>
       </c>
       <c r="I38" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="J38" t="n">
-        <v>188.2154210457075</v>
+        <v>188.2154210457076</v>
       </c>
       <c r="K38" t="n">
-        <v>322.2556470589031</v>
+        <v>416.9621788753964</v>
       </c>
       <c r="L38" t="n">
-        <v>604.7522151292669</v>
+        <v>591.5452472740951</v>
       </c>
       <c r="M38" t="n">
-        <v>687.7315513928216</v>
+        <v>674.52458353765</v>
       </c>
       <c r="N38" t="n">
-        <v>765.2111440523514</v>
+        <v>985.8769170580599</v>
       </c>
       <c r="O38" t="n">
-        <v>1035.336308451244</v>
+        <v>1256.002081456953</v>
       </c>
       <c r="P38" t="n">
-        <v>1256.002081456952</v>
+        <v>1256.002081456953</v>
       </c>
       <c r="Q38" t="n">
-        <v>1402.362428097128</v>
+        <v>1402.362428097129</v>
       </c>
       <c r="R38" t="n">
-        <v>1444.059933853638</v>
+        <v>1444.059933853639</v>
       </c>
       <c r="S38" t="n">
-        <v>1452.965642266195</v>
+        <v>1452.965642266196</v>
       </c>
       <c r="T38" t="n">
-        <v>1466.649948372314</v>
+        <v>1466.649948372316</v>
       </c>
       <c r="U38" t="n">
-        <v>1452.594922859703</v>
+        <v>1452.594922859704</v>
       </c>
       <c r="V38" t="n">
-        <v>1367.095234142041</v>
+        <v>1367.095234142042</v>
       </c>
       <c r="W38" t="n">
-        <v>1264.40697954901</v>
+        <v>1264.406979549012</v>
       </c>
       <c r="X38" t="n">
-        <v>1139.611401249981</v>
+        <v>1139.611401249982</v>
       </c>
       <c r="Y38" t="n">
-        <v>992.0856682805027</v>
+        <v>992.0856682805044</v>
       </c>
     </row>
     <row r="39">
@@ -7227,37 +7227,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>524.104035367756</v>
+        <v>58.3645837074925</v>
       </c>
       <c r="C39" t="n">
-        <v>524.104035367756</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="D39" t="n">
-        <v>363.3239191287877</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="E39" t="n">
-        <v>189.7607152502022</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="F39" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="G39" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="H39" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="I39" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="J39" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="K39" t="n">
-        <v>68.33819438854644</v>
+        <v>68.33819438854647</v>
       </c>
       <c r="L39" t="n">
-        <v>187.072035506909</v>
+        <v>187.0720355069091</v>
       </c>
       <c r="M39" t="n">
         <v>370.3834919960096</v>
@@ -7272,31 +7272,31 @@
         <v>795.0597779221285</v>
       </c>
       <c r="Q39" t="n">
-        <v>795.0597779221285</v>
+        <v>788.9612584033346</v>
       </c>
       <c r="R39" t="n">
-        <v>795.0597779221285</v>
+        <v>788.9612584033346</v>
       </c>
       <c r="S39" t="n">
-        <v>795.0597779221285</v>
+        <v>788.9612584033346</v>
       </c>
       <c r="T39" t="n">
-        <v>795.0597779221285</v>
+        <v>571.8454457721704</v>
       </c>
       <c r="U39" t="n">
-        <v>794.0572032235252</v>
+        <v>332.2215662466309</v>
       </c>
       <c r="V39" t="n">
-        <v>789.5987899540954</v>
+        <v>327.7631529772012</v>
       </c>
       <c r="W39" t="n">
-        <v>758.8215255113229</v>
+        <v>58.3645837074925</v>
       </c>
       <c r="X39" t="n">
-        <v>749.7447284324282</v>
+        <v>58.3645837074925</v>
       </c>
       <c r="Y39" t="n">
-        <v>524.104035367756</v>
+        <v>58.3645837074925</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="C40" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="D40" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="E40" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="F40" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="G40" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="H40" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="I40" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="J40" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="K40" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="L40" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="M40" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="N40" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="O40" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="P40" t="n">
-        <v>145.8690655113005</v>
+        <v>145.8690655113002</v>
       </c>
       <c r="Q40" t="n">
-        <v>145.8690655113005</v>
+        <v>145.8690655113002</v>
       </c>
       <c r="R40" t="n">
-        <v>145.8690655113005</v>
+        <v>145.8690655113002</v>
       </c>
       <c r="S40" t="n">
-        <v>145.8690655113005</v>
+        <v>145.8690655113002</v>
       </c>
       <c r="T40" t="n">
-        <v>145.8690655113005</v>
+        <v>145.8690655113002</v>
       </c>
       <c r="U40" t="n">
-        <v>92.91839161032684</v>
+        <v>92.91839161032669</v>
       </c>
       <c r="V40" t="n">
-        <v>83.95483261458627</v>
+        <v>83.95483261458621</v>
       </c>
       <c r="W40" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="X40" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="Y40" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>852.8410737358899</v>
+        <v>852.8410737358911</v>
       </c>
       <c r="C41" t="n">
-        <v>737.7194519151706</v>
+        <v>737.7194519151717</v>
       </c>
       <c r="D41" t="n">
-        <v>635.1567571034933</v>
+        <v>635.1567571034943</v>
       </c>
       <c r="E41" t="n">
-        <v>498.5468376257465</v>
+        <v>498.5468376257475</v>
       </c>
       <c r="F41" t="n">
-        <v>329.8961731193357</v>
+        <v>329.8961731193366</v>
       </c>
       <c r="G41" t="n">
-        <v>145.4609201114947</v>
+        <v>145.4609201114956</v>
       </c>
       <c r="H41" t="n">
-        <v>33.68156539198419</v>
+        <v>33.6815653919843</v>
       </c>
       <c r="I41" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="J41" t="n">
-        <v>188.2154210457076</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="K41" t="n">
-        <v>416.9621788753963</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="L41" t="n">
-        <v>465.5860060848801</v>
+        <v>311.8295670378101</v>
       </c>
       <c r="M41" t="n">
-        <v>782.438083209315</v>
+        <v>628.681644162245</v>
       </c>
       <c r="N41" t="n">
-        <v>859.9176758688448</v>
+        <v>815.8143582214203</v>
       </c>
       <c r="O41" t="n">
-        <v>1130.042840267737</v>
+        <v>1085.939522620313</v>
       </c>
       <c r="P41" t="n">
-        <v>1256.002081456951</v>
+        <v>1306.60529562602</v>
       </c>
       <c r="Q41" t="n">
-        <v>1402.362428097128</v>
+        <v>1452.965642266197</v>
       </c>
       <c r="R41" t="n">
-        <v>1444.059933853638</v>
+        <v>1452.965642266197</v>
       </c>
       <c r="S41" t="n">
-        <v>1452.965642266195</v>
+        <v>1452.965642266197</v>
       </c>
       <c r="T41" t="n">
-        <v>1466.649948372314</v>
+        <v>1466.649948372316</v>
       </c>
       <c r="U41" t="n">
-        <v>1452.594922859702</v>
+        <v>1452.594922859704</v>
       </c>
       <c r="V41" t="n">
-        <v>1367.09523414204</v>
+        <v>1367.095234142042</v>
       </c>
       <c r="W41" t="n">
-        <v>1264.40697954901</v>
+        <v>1264.406979549012</v>
       </c>
       <c r="X41" t="n">
-        <v>1139.611401249981</v>
+        <v>1139.611401249982</v>
       </c>
       <c r="Y41" t="n">
-        <v>992.0856682805027</v>
+        <v>992.085668280504</v>
       </c>
     </row>
     <row r="42">
@@ -7464,37 +7464,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>524.104035367756</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="C42" t="n">
-        <v>524.104035367756</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="D42" t="n">
-        <v>363.3239191287877</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="E42" t="n">
-        <v>189.7607152502022</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="F42" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="G42" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="H42" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="I42" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="J42" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="K42" t="n">
-        <v>68.33819438854644</v>
+        <v>68.33819438854647</v>
       </c>
       <c r="L42" t="n">
-        <v>187.072035506909</v>
+        <v>187.0720355069091</v>
       </c>
       <c r="M42" t="n">
         <v>370.3834919960096</v>
@@ -7509,31 +7509,31 @@
         <v>795.0597779221285</v>
       </c>
       <c r="Q42" t="n">
-        <v>795.0597779221285</v>
+        <v>788.9612584033346</v>
       </c>
       <c r="R42" t="n">
-        <v>795.0597779221285</v>
+        <v>653.2893801688297</v>
       </c>
       <c r="S42" t="n">
-        <v>795.0597779221285</v>
+        <v>542.8138610321244</v>
       </c>
       <c r="T42" t="n">
-        <v>795.0597779221285</v>
+        <v>542.8138610321244</v>
       </c>
       <c r="U42" t="n">
-        <v>794.0572032235252</v>
+        <v>541.8112863335209</v>
       </c>
       <c r="V42" t="n">
-        <v>789.5987899540954</v>
+        <v>298.731568237155</v>
       </c>
       <c r="W42" t="n">
-        <v>758.8215255113229</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="X42" t="n">
-        <v>749.7447284324282</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="Y42" t="n">
-        <v>524.104035367756</v>
+        <v>29.33299896744631</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="C43" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="D43" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="E43" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="F43" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="G43" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="H43" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="I43" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="J43" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="K43" t="n">
-        <v>145.8690655113003</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="L43" t="n">
-        <v>145.8690655113003</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="M43" t="n">
-        <v>145.8690655113003</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="N43" t="n">
-        <v>145.8690655113003</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="O43" t="n">
-        <v>145.8690655113003</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="P43" t="n">
-        <v>145.8690655113003</v>
+        <v>145.8690655113006</v>
       </c>
       <c r="Q43" t="n">
-        <v>145.8690655113003</v>
+        <v>145.8690655113006</v>
       </c>
       <c r="R43" t="n">
-        <v>145.8690655113003</v>
+        <v>145.8690655113006</v>
       </c>
       <c r="S43" t="n">
-        <v>145.8690655113003</v>
+        <v>145.8690655113006</v>
       </c>
       <c r="T43" t="n">
-        <v>145.8690655113003</v>
+        <v>145.8690655113006</v>
       </c>
       <c r="U43" t="n">
-        <v>92.91839161032672</v>
+        <v>92.91839161032692</v>
       </c>
       <c r="V43" t="n">
-        <v>83.95483261458621</v>
+        <v>83.95483261458632</v>
       </c>
       <c r="W43" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="X43" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="Y43" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>852.8410737358902</v>
+        <v>852.8410737358918</v>
       </c>
       <c r="C44" t="n">
-        <v>737.719451915171</v>
+        <v>737.7194519151724</v>
       </c>
       <c r="D44" t="n">
-        <v>635.1567571034936</v>
+        <v>635.156757103495</v>
       </c>
       <c r="E44" t="n">
-        <v>498.5468376257465</v>
+        <v>498.546837625748</v>
       </c>
       <c r="F44" t="n">
-        <v>329.8961731193357</v>
+        <v>329.8961731193366</v>
       </c>
       <c r="G44" t="n">
-        <v>145.4609201114947</v>
+        <v>145.4609201114956</v>
       </c>
       <c r="H44" t="n">
-        <v>33.68156539198419</v>
+        <v>33.6815653919843</v>
       </c>
       <c r="I44" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="J44" t="n">
-        <v>188.2154210457076</v>
+        <v>188.2154210457075</v>
       </c>
       <c r="K44" t="n">
-        <v>416.9621788753963</v>
+        <v>416.9621788753961</v>
       </c>
       <c r="L44" t="n">
-        <v>699.4587469457601</v>
+        <v>699.4587469457599</v>
       </c>
       <c r="M44" t="n">
         <v>1016.310824070195</v>
       </c>
       <c r="N44" t="n">
-        <v>1093.790416729725</v>
+        <v>1093.790416729724</v>
       </c>
       <c r="O44" t="n">
-        <v>1363.915581128618</v>
+        <v>1269.686387563072</v>
       </c>
       <c r="P44" t="n">
-        <v>1444.059933853638</v>
+        <v>1269.686387563072</v>
       </c>
       <c r="Q44" t="n">
-        <v>1444.059933853638</v>
+        <v>1416.046734203248</v>
       </c>
       <c r="R44" t="n">
-        <v>1444.059933853638</v>
+        <v>1457.744239959758</v>
       </c>
       <c r="S44" t="n">
-        <v>1452.965642266195</v>
+        <v>1466.649948372316</v>
       </c>
       <c r="T44" t="n">
-        <v>1466.649948372314</v>
+        <v>1466.649948372316</v>
       </c>
       <c r="U44" t="n">
-        <v>1452.594922859703</v>
+        <v>1452.594922859705</v>
       </c>
       <c r="V44" t="n">
-        <v>1367.095234142041</v>
+        <v>1367.095234142043</v>
       </c>
       <c r="W44" t="n">
-        <v>1264.40697954901</v>
+        <v>1264.406979549012</v>
       </c>
       <c r="X44" t="n">
-        <v>1139.611401249981</v>
+        <v>1139.611401249982</v>
       </c>
       <c r="Y44" t="n">
-        <v>992.0856682805029</v>
+        <v>992.0856682805045</v>
       </c>
     </row>
     <row r="45">
@@ -7701,37 +7701,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>202.8962028460318</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="C45" t="n">
-        <v>202.8962028460318</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="D45" t="n">
-        <v>202.8962028460318</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="E45" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="F45" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="G45" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="H45" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="I45" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="J45" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="K45" t="n">
-        <v>68.33819438854644</v>
+        <v>68.33819438854647</v>
       </c>
       <c r="L45" t="n">
-        <v>187.072035506909</v>
+        <v>187.0720355069091</v>
       </c>
       <c r="M45" t="n">
         <v>370.3834919960096</v>
@@ -7746,31 +7746,31 @@
         <v>795.0597779221285</v>
       </c>
       <c r="Q45" t="n">
-        <v>795.0597779221285</v>
+        <v>788.9612584033346</v>
       </c>
       <c r="R45" t="n">
-        <v>659.3878996876236</v>
+        <v>788.9612584033346</v>
       </c>
       <c r="S45" t="n">
-        <v>659.3878996876236</v>
+        <v>595.5574844484613</v>
       </c>
       <c r="T45" t="n">
-        <v>442.2720870564594</v>
+        <v>595.5574844484613</v>
       </c>
       <c r="U45" t="n">
-        <v>441.2695123578561</v>
+        <v>468.7452226712562</v>
       </c>
       <c r="V45" t="n">
-        <v>436.8110990884264</v>
+        <v>464.2868094018264</v>
       </c>
       <c r="W45" t="n">
-        <v>406.0338346456539</v>
+        <v>433.5095449590538</v>
       </c>
       <c r="X45" t="n">
-        <v>381.4320557729669</v>
+        <v>433.5095449590538</v>
       </c>
       <c r="Y45" t="n">
-        <v>381.4320557729669</v>
+        <v>207.8688518943814</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="C46" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="D46" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="E46" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="F46" t="n">
-        <v>29.33299896744628</v>
+        <v>125.6681264320642</v>
       </c>
       <c r="G46" t="n">
-        <v>29.33299896744628</v>
+        <v>133.4971554498846</v>
       </c>
       <c r="H46" t="n">
-        <v>29.33299896744628</v>
+        <v>133.4971554498846</v>
       </c>
       <c r="I46" t="n">
-        <v>29.33299896744628</v>
+        <v>133.4971554498846</v>
       </c>
       <c r="J46" t="n">
-        <v>29.33299896744628</v>
+        <v>133.4971554498846</v>
       </c>
       <c r="K46" t="n">
-        <v>29.33299896744628</v>
+        <v>133.4971554498846</v>
       </c>
       <c r="L46" t="n">
-        <v>29.33299896744628</v>
+        <v>133.4971554498846</v>
       </c>
       <c r="M46" t="n">
-        <v>29.33299896744628</v>
+        <v>133.4971554498846</v>
       </c>
       <c r="N46" t="n">
-        <v>29.33299896744628</v>
+        <v>133.4971554498846</v>
       </c>
       <c r="O46" t="n">
-        <v>29.33299896744628</v>
+        <v>133.4971554498846</v>
       </c>
       <c r="P46" t="n">
-        <v>145.8690655113003</v>
+        <v>133.4971554498846</v>
       </c>
       <c r="Q46" t="n">
-        <v>145.8690655113003</v>
+        <v>133.4971554498846</v>
       </c>
       <c r="R46" t="n">
-        <v>145.8690655113003</v>
+        <v>133.4971554498846</v>
       </c>
       <c r="S46" t="n">
-        <v>145.8690655113003</v>
+        <v>133.4971554498846</v>
       </c>
       <c r="T46" t="n">
-        <v>145.8690655113003</v>
+        <v>145.8690655113006</v>
       </c>
       <c r="U46" t="n">
-        <v>92.91839161032672</v>
+        <v>92.91839161032692</v>
       </c>
       <c r="V46" t="n">
-        <v>83.95483261458621</v>
+        <v>83.95483261458632</v>
       </c>
       <c r="W46" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="X46" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
       <c r="Y46" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744631</v>
       </c>
     </row>
   </sheetData>
@@ -8772,19 +8772,19 @@
         <v>131.9742862901104</v>
       </c>
       <c r="L12" t="n">
-        <v>120.3713709098107</v>
+        <v>201.5002359135912</v>
       </c>
       <c r="M12" t="n">
-        <v>197.7426589510526</v>
+        <v>201.1586111617382</v>
       </c>
       <c r="N12" t="n">
-        <v>186.4889234163773</v>
+        <v>186.4889234163774</v>
       </c>
       <c r="O12" t="n">
-        <v>205.1857278322748</v>
+        <v>205.1857278322749</v>
       </c>
       <c r="P12" t="n">
-        <v>205.1943705594503</v>
+        <v>120.6495533449843</v>
       </c>
       <c r="Q12" t="n">
         <v>136.1300824528302</v>
@@ -9006,22 +9006,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>131.9742862901104</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L15" t="n">
-        <v>120.3713709098107</v>
+        <v>162.1010486195506</v>
       </c>
       <c r="M15" t="n">
-        <v>201.1586111617381</v>
+        <v>201.1586111617382</v>
       </c>
       <c r="N15" t="n">
-        <v>183.0729712056919</v>
+        <v>101.9441062019114</v>
       </c>
       <c r="O15" t="n">
-        <v>205.1857278322748</v>
+        <v>205.1857278322749</v>
       </c>
       <c r="P15" t="n">
-        <v>205.1943705594503</v>
+        <v>205.1943705594504</v>
       </c>
       <c r="Q15" t="n">
         <v>136.1300824528302</v>
@@ -9243,22 +9243,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>171.373473584151</v>
+        <v>131.9742862901104</v>
       </c>
       <c r="L18" t="n">
-        <v>120.3713709098107</v>
+        <v>201.5002359135912</v>
       </c>
       <c r="M18" t="n">
-        <v>158.3434716570121</v>
+        <v>201.1586111617382</v>
       </c>
       <c r="N18" t="n">
-        <v>186.4889234163773</v>
+        <v>101.9441062019114</v>
       </c>
       <c r="O18" t="n">
-        <v>205.1857278322748</v>
+        <v>205.1857278322749</v>
       </c>
       <c r="P18" t="n">
-        <v>205.1943705594503</v>
+        <v>205.1943705594504</v>
       </c>
       <c r="Q18" t="n">
         <v>136.1300824528302</v>
@@ -9483,19 +9483,19 @@
         <v>171.373473584151</v>
       </c>
       <c r="L21" t="n">
-        <v>204.9161881242766</v>
+        <v>120.3713709098107</v>
       </c>
       <c r="M21" t="n">
-        <v>201.1586111617381</v>
+        <v>158.3434716570121</v>
       </c>
       <c r="N21" t="n">
-        <v>186.4889234163773</v>
+        <v>186.4889234163774</v>
       </c>
       <c r="O21" t="n">
-        <v>162.3705883275488</v>
+        <v>205.1857278322749</v>
       </c>
       <c r="P21" t="n">
-        <v>120.6495533449843</v>
+        <v>205.1943705594504</v>
       </c>
       <c r="Q21" t="n">
         <v>136.1300824528302</v>
@@ -9717,22 +9717,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>131.9742862901104</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L24" t="n">
-        <v>204.9161881242766</v>
+        <v>120.3713709098107</v>
       </c>
       <c r="M24" t="n">
-        <v>201.1586111617381</v>
+        <v>201.1586111617382</v>
       </c>
       <c r="N24" t="n">
-        <v>183.0729712056918</v>
+        <v>186.4889234163774</v>
       </c>
       <c r="O24" t="n">
-        <v>205.1857278322748</v>
+        <v>162.3705883275489</v>
       </c>
       <c r="P24" t="n">
-        <v>120.6495533449843</v>
+        <v>205.1943705594504</v>
       </c>
       <c r="Q24" t="n">
         <v>136.1300824528302</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>169.9757986516686</v>
+        <v>169.9757986516687</v>
       </c>
       <c r="C11" t="n">
-        <v>146.0940556550141</v>
+        <v>140.7930909518131</v>
       </c>
       <c r="D11" t="n">
-        <v>133.6607179160626</v>
+        <v>133.6607179160627</v>
       </c>
       <c r="E11" t="n">
-        <v>82.82265312100549</v>
+        <v>167.3674703354715</v>
       </c>
       <c r="F11" t="n">
-        <v>114.5429906993828</v>
+        <v>199.0878079138488</v>
       </c>
       <c r="G11" t="n">
-        <v>214.7145505302646</v>
+        <v>214.7145505302647</v>
       </c>
       <c r="H11" t="n">
-        <v>104.7468670351112</v>
+        <v>142.7852112248183</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>36.42873081279471</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>23.12798498931285</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>18.30111863217988</v>
+        <v>18.30111863217996</v>
       </c>
       <c r="U11" t="n">
-        <v>46.03812530998749</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>116.7683418829873</v>
+        <v>32.22352466852135</v>
       </c>
       <c r="W11" t="n">
-        <v>133.7850220996022</v>
+        <v>133.7850220996023</v>
       </c>
       <c r="X11" t="n">
         <v>71.12645535407546</v>
       </c>
       <c r="Y11" t="n">
-        <v>178.1741256922852</v>
+        <v>93.62930847781922</v>
       </c>
     </row>
     <row r="12">
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>169.9757986516687</v>
+        <v>85.43098143720266</v>
       </c>
       <c r="C14" t="n">
         <v>146.0940556550142</v>
       </c>
       <c r="D14" t="n">
-        <v>133.6607179160626</v>
+        <v>133.6607179160627</v>
       </c>
       <c r="E14" t="n">
         <v>167.3674703354715</v>
@@ -23507,13 +23507,13 @@
         <v>199.0878079138488</v>
       </c>
       <c r="G14" t="n">
-        <v>130.1697333157987</v>
+        <v>214.7145505302647</v>
       </c>
       <c r="H14" t="n">
-        <v>109.7472398438096</v>
+        <v>58.24039401035228</v>
       </c>
       <c r="I14" t="n">
-        <v>36.42873081279468</v>
+        <v>36.42873081279471</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>18.30111863217996</v>
       </c>
       <c r="U14" t="n">
-        <v>46.03812530998755</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>32.22352466852141</v>
+        <v>32.22352466852135</v>
       </c>
       <c r="W14" t="n">
-        <v>49.24020488513628</v>
+        <v>133.7850220996023</v>
       </c>
       <c r="X14" t="n">
-        <v>155.6712725685415</v>
+        <v>150.3703078653404</v>
       </c>
       <c r="Y14" t="n">
-        <v>178.1741256922852</v>
+        <v>178.1741256922853</v>
       </c>
     </row>
     <row r="15">
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>1.654448148704716</v>
+        <v>1.65444814870466</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.35003119794419e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>899771.5198608134</v>
+        <v>899771.5198608133</v>
       </c>
     </row>
     <row r="6">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>617352.3966235219</v>
+        <v>617352.3966235215</v>
       </c>
       <c r="C2" t="n">
-        <v>617352.3966235219</v>
+        <v>617352.3966235216</v>
       </c>
       <c r="D2" t="n">
-        <v>617352.3966235219</v>
+        <v>617352.3966235218</v>
       </c>
       <c r="E2" t="n">
-        <v>531993.0623143358</v>
+        <v>531993.062314336</v>
       </c>
       <c r="F2" t="n">
-        <v>531993.0623143356</v>
+        <v>531993.062314336</v>
       </c>
       <c r="G2" t="n">
-        <v>618602.9842009755</v>
+        <v>618602.9842009753</v>
       </c>
       <c r="H2" t="n">
-        <v>618602.9842009755</v>
+        <v>618602.9842009754</v>
       </c>
       <c r="I2" t="n">
-        <v>618602.9842009754</v>
+        <v>618602.9842009753</v>
       </c>
       <c r="J2" t="n">
-        <v>618602.9842009757</v>
+        <v>618602.9842009763</v>
       </c>
       <c r="K2" t="n">
-        <v>618602.9842009761</v>
+        <v>618602.9842009762</v>
       </c>
       <c r="L2" t="n">
-        <v>618602.9842009764</v>
+        <v>618602.9842009763</v>
       </c>
       <c r="M2" t="n">
-        <v>618602.9842009763</v>
+        <v>618602.9842009759</v>
       </c>
       <c r="N2" t="n">
-        <v>618602.9842009761</v>
+        <v>618602.9842009759</v>
       </c>
       <c r="O2" t="n">
-        <v>618602.9842009761</v>
+        <v>618602.9842009759</v>
       </c>
       <c r="P2" t="n">
-        <v>618602.9842009759</v>
+        <v>618602.9842009756</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>272248.0407556372</v>
+        <v>272248.0407556371</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>105057.1604753343</v>
       </c>
       <c r="M3" t="n">
-        <v>18715.71856690187</v>
+        <v>18715.71856690189</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>65215.19438069729</v>
+        <v>65215.19438069713</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>483119.1666438953</v>
       </c>
       <c r="E4" t="n">
-        <v>377535.3844723611</v>
+        <v>377535.384472361</v>
       </c>
       <c r="F4" t="n">
-        <v>377535.3844723609</v>
+        <v>377535.384472361</v>
       </c>
       <c r="G4" t="n">
         <v>448063.6435868028</v>
@@ -26439,25 +26439,25 @@
         <v>448063.6435868028</v>
       </c>
       <c r="J4" t="n">
-        <v>448080.6067479625</v>
+        <v>448080.6067479627</v>
       </c>
       <c r="K4" t="n">
-        <v>448080.6067479625</v>
+        <v>448080.6067479626</v>
       </c>
       <c r="L4" t="n">
         <v>448080.6067479626</v>
       </c>
       <c r="M4" t="n">
+        <v>447701.1427578537</v>
+      </c>
+      <c r="N4" t="n">
         <v>447701.1427578538</v>
-      </c>
-      <c r="N4" t="n">
-        <v>447701.1427578537</v>
       </c>
       <c r="O4" t="n">
         <v>447701.1427578537</v>
       </c>
       <c r="P4" t="n">
-        <v>447701.1427578538</v>
+        <v>447701.1427578537</v>
       </c>
     </row>
     <row r="5">
@@ -26491,25 +26491,25 @@
         <v>35611.42180862118</v>
       </c>
       <c r="J5" t="n">
-        <v>47598.27644989196</v>
+        <v>47598.27644989199</v>
       </c>
       <c r="K5" t="n">
-        <v>47598.27644989196</v>
+        <v>47598.27644989199</v>
       </c>
       <c r="L5" t="n">
-        <v>47598.27644989197</v>
+        <v>47598.27644989198</v>
       </c>
       <c r="M5" t="n">
         <v>44424.71624350354</v>
       </c>
       <c r="N5" t="n">
-        <v>44424.71624350352</v>
+        <v>44424.71624350354</v>
       </c>
       <c r="O5" t="n">
-        <v>44424.71624350353</v>
+        <v>44424.71624350354</v>
       </c>
       <c r="P5" t="n">
-        <v>44424.71624350353</v>
+        <v>44424.71624350354</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>100605.6299796266</v>
+        <v>100601.1635954209</v>
       </c>
       <c r="C6" t="n">
-        <v>100605.6299796266</v>
+        <v>100601.1635954211</v>
       </c>
       <c r="D6" t="n">
-        <v>100605.6299796266</v>
+        <v>100601.1635954213</v>
       </c>
       <c r="E6" t="n">
-        <v>-142361.7216922825</v>
+        <v>-142671.0428418773</v>
       </c>
       <c r="F6" t="n">
-        <v>129886.3190633546</v>
+        <v>129576.9979137598</v>
       </c>
       <c r="G6" t="n">
-        <v>29870.7583302173</v>
+        <v>29870.75833021707</v>
       </c>
       <c r="H6" t="n">
-        <v>134927.9188055516</v>
+        <v>134927.9188055515</v>
       </c>
       <c r="I6" t="n">
-        <v>134927.9188055515</v>
+        <v>134927.9188055513</v>
       </c>
       <c r="J6" t="n">
-        <v>-38226.13315055751</v>
+        <v>-38226.13315055707</v>
       </c>
       <c r="K6" t="n">
         <v>122924.1010031216</v>
       </c>
       <c r="L6" t="n">
-        <v>17866.94052778755</v>
+        <v>17866.94052778748</v>
       </c>
       <c r="M6" t="n">
-        <v>107761.4066327171</v>
+        <v>107761.4066327167</v>
       </c>
       <c r="N6" t="n">
-        <v>126477.1251996188</v>
+        <v>126477.1251996184</v>
       </c>
       <c r="O6" t="n">
-        <v>61261.93081892151</v>
+        <v>61261.93081892149</v>
       </c>
       <c r="P6" t="n">
-        <v>126477.1251996185</v>
+        <v>126477.1251996184</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="F2" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="G2" t="n">
         <v>335.4328923203325</v>
@@ -26707,7 +26707,7 @@
         <v>335.4328923203325</v>
       </c>
       <c r="J2" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="K2" t="n">
         <v>212.8404435700394</v>
@@ -26719,13 +26719,13 @@
         <v>236.2350917786667</v>
       </c>
       <c r="N2" t="n">
+        <v>236.2350917786668</v>
+      </c>
+      <c r="O2" t="n">
         <v>236.2350917786667</v>
       </c>
-      <c r="O2" t="n">
-        <v>236.2350917786668</v>
-      </c>
       <c r="P2" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
     </row>
     <row r="3">
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>84.54481721446595</v>
+        <v>84.54481721446604</v>
       </c>
       <c r="F4" t="n">
-        <v>84.54481721446595</v>
+        <v>84.54481721446604</v>
       </c>
       <c r="G4" t="n">
-        <v>84.54481721446595</v>
+        <v>84.54481721446604</v>
       </c>
       <c r="H4" t="n">
-        <v>84.54481721446595</v>
+        <v>84.54481721446604</v>
       </c>
       <c r="I4" t="n">
-        <v>84.54481721446595</v>
+        <v>84.54481721446604</v>
       </c>
       <c r="J4" t="n">
-        <v>451.2073043075447</v>
+        <v>451.2073043075449</v>
       </c>
       <c r="K4" t="n">
-        <v>451.2073043075447</v>
+        <v>451.2073043075449</v>
       </c>
       <c r="L4" t="n">
-        <v>451.2073043075447</v>
+        <v>451.2073043075449</v>
       </c>
       <c r="M4" t="n">
-        <v>366.6624870930788</v>
+        <v>366.6624870930789</v>
       </c>
       <c r="N4" t="n">
-        <v>366.6624870930785</v>
+        <v>366.6624870930789</v>
       </c>
       <c r="O4" t="n">
-        <v>366.6624870930785</v>
+        <v>366.6624870930789</v>
       </c>
       <c r="P4" t="n">
-        <v>366.6624870930785</v>
+        <v>366.6624870930789</v>
       </c>
     </row>
   </sheetData>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>131.3214505941679</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>81.51899297587153</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>131.3214505941678</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>81.51899297587156</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>131.3214505941679</v>
-      </c>
       <c r="M2" t="n">
-        <v>23.39464820862733</v>
+        <v>23.39464820862736</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="O2" t="n">
-        <v>81.51899297587161</v>
+        <v>81.51899297587141</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>84.54481721446595</v>
+        <v>84.54481721446604</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>366.6624870930788</v>
+        <v>366.6624870930789</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>131.3214505941678</v>
+        <v>131.3214505941679</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>81.51899297587156</v>
+        <v>81.51899297587153</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>84.54481721446595</v>
+        <v>84.54481721446604</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="C11" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="D11" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="E11" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="F11" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="G11" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="H11" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="I11" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="J11" t="n">
         <v>75.74779675012002</v>
@@ -28117,7 +28117,7 @@
         <v>5.17776063756709</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>2.405186634146212</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -28129,34 +28129,34 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>13.34037157088128</v>
+        <v>97.88518878534731</v>
       </c>
       <c r="Q11" t="n">
-        <v>165.3513190164611</v>
+        <v>88.39635779869053</v>
       </c>
       <c r="R11" t="n">
-        <v>204.1114417261647</v>
+        <v>194.1163990953234</v>
       </c>
       <c r="S11" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="T11" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="U11" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="V11" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="W11" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="X11" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="Y11" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
     </row>
     <row r="12">
@@ -28190,7 +28190,7 @@
         <v>107.1390224876151</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>51.85943295535305</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28211,31 +28211,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>6.037534323606007</v>
       </c>
       <c r="R12" t="n">
         <v>134.3151594521598</v>
       </c>
       <c r="S12" t="n">
-        <v>191.4697362153245</v>
+        <v>106.9249190008585</v>
       </c>
       <c r="T12" t="n">
-        <v>204.1114417261647</v>
+        <v>136.1090822387898</v>
       </c>
       <c r="U12" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="V12" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="W12" t="n">
-        <v>182.1597663625456</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="X12" t="n">
-        <v>196.6848804735068</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="Y12" t="n">
-        <v>138.8394689195597</v>
+        <v>204.1114417261646</v>
       </c>
     </row>
     <row r="13">
@@ -28254,40 +28254,40 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E13" t="n">
-        <v>204.1114417261647</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F13" t="n">
-        <v>166.7739122179517</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
         <v>168.6953110816783</v>
       </c>
       <c r="H13" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="I13" t="n">
-        <v>164.6886553331604</v>
+        <v>170.4261686321396</v>
       </c>
       <c r="J13" t="n">
         <v>119.8533137078861</v>
       </c>
       <c r="K13" t="n">
-        <v>150.9399978522039</v>
+        <v>66.39518063773792</v>
       </c>
       <c r="L13" t="n">
-        <v>31.33949144013922</v>
+        <v>115.8843086546053</v>
       </c>
       <c r="M13" t="n">
-        <v>24.3603827851581</v>
+        <v>108.9051999996242</v>
       </c>
       <c r="N13" t="n">
         <v>15.68403999776786</v>
       </c>
       <c r="O13" t="n">
-        <v>121.2514114901319</v>
+        <v>36.70659427566596</v>
       </c>
       <c r="P13" t="n">
-        <v>57.81777162581083</v>
+        <v>142.3625888402769</v>
       </c>
       <c r="Q13" t="n">
         <v>126.7594634122123</v>
@@ -28296,25 +28296,25 @@
         <v>203.184286794587</v>
       </c>
       <c r="S13" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="T13" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="U13" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="V13" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="W13" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="X13" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="Y13" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
     </row>
     <row r="14">
@@ -28324,43 +28324,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="C14" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="D14" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="E14" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="F14" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="G14" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="H14" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="I14" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="J14" t="n">
-        <v>75.74779675012002</v>
+        <v>156.4151981918721</v>
       </c>
       <c r="K14" t="n">
         <v>5.17776063756709</v>
       </c>
       <c r="L14" t="n">
-        <v>2.405186634145984</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>6.282602406860178</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -28369,31 +28369,31 @@
         <v>13.34037157088128</v>
       </c>
       <c r="Q14" t="n">
-        <v>172.9411750131565</v>
+        <v>88.39635779869053</v>
       </c>
       <c r="R14" t="n">
         <v>194.1163990953234</v>
       </c>
       <c r="S14" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="T14" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="U14" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="V14" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="W14" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="X14" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="Y14" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
     </row>
     <row r="15">
@@ -28406,7 +28406,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>102.9733343099</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D15" t="n">
         <v>159.1723150765785</v>
@@ -28427,7 +28427,7 @@
         <v>107.1390224876151</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>51.85943295535305</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28448,31 +28448,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>6.037534323606007</v>
       </c>
       <c r="R15" t="n">
         <v>134.3151594521598</v>
       </c>
       <c r="S15" t="n">
-        <v>191.4697362153245</v>
+        <v>106.9249190008585</v>
       </c>
       <c r="T15" t="n">
-        <v>204.1114417261647</v>
+        <v>136.1090822387898</v>
       </c>
       <c r="U15" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="V15" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="W15" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="X15" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="Y15" t="n">
-        <v>194.0060495177489</v>
+        <v>204.1114417261646</v>
       </c>
     </row>
     <row r="16">
@@ -28482,16 +28482,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>204.1114417261647</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C16" t="n">
-        <v>166.4571809719723</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="D16" t="n">
         <v>145.1826502507107</v>
       </c>
       <c r="E16" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="F16" t="n">
         <v>138.9268822184467</v>
@@ -28500,58 +28500,58 @@
         <v>168.6953110816783</v>
       </c>
       <c r="H16" t="n">
-        <v>204.1114417261647</v>
+        <v>194.3042109714779</v>
       </c>
       <c r="I16" t="n">
         <v>164.6886553331604</v>
       </c>
       <c r="J16" t="n">
-        <v>204.1114417261647</v>
+        <v>119.8533137078861</v>
       </c>
       <c r="K16" t="n">
-        <v>150.9399978522039</v>
+        <v>66.39518063773792</v>
       </c>
       <c r="L16" t="n">
         <v>31.33949144013922</v>
       </c>
       <c r="M16" t="n">
-        <v>24.3603827851581</v>
+        <v>108.9051999996242</v>
       </c>
       <c r="N16" t="n">
         <v>15.68403999776786</v>
       </c>
       <c r="O16" t="n">
-        <v>36.70659427566596</v>
+        <v>121.251411490132</v>
       </c>
       <c r="P16" t="n">
         <v>57.81777162581083</v>
       </c>
       <c r="Q16" t="n">
-        <v>128.3986615467086</v>
+        <v>126.7594634122123</v>
       </c>
       <c r="R16" t="n">
         <v>203.184286794587</v>
       </c>
       <c r="S16" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="T16" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="U16" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="V16" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="W16" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="X16" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="Y16" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
     </row>
     <row r="17">
@@ -28582,7 +28582,7 @@
         <v>335.4328923203325</v>
       </c>
       <c r="I17" t="n">
-        <v>325.0849897534252</v>
+        <v>240.5401725389593</v>
       </c>
       <c r="J17" t="n">
         <v>75.74779675012002</v>
@@ -28603,7 +28603,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>13.34037157088128</v>
+        <v>97.88518878534731</v>
       </c>
       <c r="Q17" t="n">
         <v>88.39635779869053</v>
@@ -28621,7 +28621,7 @@
         <v>250.1495670361522</v>
       </c>
       <c r="V17" t="n">
-        <v>323.2849702432979</v>
+        <v>323.2849702432982</v>
       </c>
       <c r="W17" t="n">
         <v>335.4328923203325</v>
@@ -28658,13 +28658,13 @@
         <v>148.7380872222379</v>
       </c>
       <c r="H18" t="n">
-        <v>41.12776443376275</v>
+        <v>125.6725816482287</v>
       </c>
       <c r="I18" t="n">
-        <v>84.53138044046661</v>
+        <v>107.1390224876151</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>51.85943295535305</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,22 +28685,22 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.037534323606007</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.77034223769385</v>
+        <v>49.77034223769377</v>
       </c>
       <c r="S18" t="n">
-        <v>106.9249190008586</v>
+        <v>191.4697362153245</v>
       </c>
       <c r="T18" t="n">
-        <v>214.9446545048526</v>
+        <v>146.5151138259569</v>
       </c>
       <c r="U18" t="n">
-        <v>237.2276407302841</v>
+        <v>152.682823515818</v>
       </c>
       <c r="V18" t="n">
-        <v>240.6489209154022</v>
+        <v>156.1041037009362</v>
       </c>
       <c r="W18" t="n">
         <v>266.7045835770116</v>
@@ -28831,7 +28831,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>0.7273058371379761</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -28849,16 +28849,16 @@
         <v>194.1163990953234</v>
       </c>
       <c r="S20" t="n">
-        <v>227.2394267154776</v>
+        <v>311.7842439299436</v>
       </c>
       <c r="T20" t="n">
         <v>222.4125603583446</v>
       </c>
       <c r="U20" t="n">
-        <v>334.6943842506182</v>
+        <v>250.1495670361522</v>
       </c>
       <c r="V20" t="n">
-        <v>323.2849702432979</v>
+        <v>322.5576644061603</v>
       </c>
       <c r="W20" t="n">
         <v>335.4328923203325</v>
@@ -28877,19 +28877,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>160.1803866741232</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>74.62749786211259</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>87.28275462533372</v>
+        <v>97.36049683729802</v>
       </c>
       <c r="F21" t="n">
-        <v>74.27862190546239</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
         <v>148.7380872222379</v>
@@ -28901,7 +28901,7 @@
         <v>107.1390224876151</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>51.85943295535305</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28922,10 +28922,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>6.037534323606007</v>
       </c>
       <c r="R21" t="n">
-        <v>134.3151594521598</v>
+        <v>49.77034223769377</v>
       </c>
       <c r="S21" t="n">
         <v>191.4697362153245</v>
@@ -28934,7 +28934,7 @@
         <v>214.9446545048526</v>
       </c>
       <c r="U21" t="n">
-        <v>237.2276407302841</v>
+        <v>152.682823515818</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
@@ -28946,7 +28946,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
-        <v>223.3842861340256</v>
+        <v>138.8394689195596</v>
       </c>
     </row>
     <row r="22">
@@ -29074,7 +29074,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>2.405186634146204</v>
       </c>
       <c r="P23" t="n">
         <v>13.34037157088128</v>
@@ -29083,10 +29083,10 @@
         <v>88.39635779869053</v>
       </c>
       <c r="R23" t="n">
-        <v>194.1163990953234</v>
+        <v>278.6612163097894</v>
       </c>
       <c r="S23" t="n">
-        <v>299.636321852909</v>
+        <v>227.2394267154776</v>
       </c>
       <c r="T23" t="n">
         <v>222.4125603583446</v>
@@ -29095,7 +29095,7 @@
         <v>250.1495670361522</v>
       </c>
       <c r="V23" t="n">
-        <v>335.4328923203325</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W23" t="n">
         <v>335.4328923203325</v>
@@ -29120,16 +29120,16 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>142.602207353036</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>87.28275462533372</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>74.27862190546239</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>64.19327000777197</v>
+        <v>148.7380872222379</v>
       </c>
       <c r="H24" t="n">
         <v>125.6725816482287</v>
@@ -29138,7 +29138,7 @@
         <v>107.1390224876151</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>51.85943295535305</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29159,22 +29159,22 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>6.037534323606007</v>
       </c>
       <c r="R24" t="n">
-        <v>134.3151594521598</v>
+        <v>49.77034223769377</v>
       </c>
       <c r="S24" t="n">
-        <v>191.4697362153245</v>
+        <v>106.9249190008585</v>
       </c>
       <c r="T24" t="n">
-        <v>214.9446545048526</v>
+        <v>130.3998372903865</v>
       </c>
       <c r="U24" t="n">
         <v>237.2276407302841</v>
       </c>
       <c r="V24" t="n">
-        <v>240.6489209154022</v>
+        <v>166.1818459129006</v>
       </c>
       <c r="W24" t="n">
         <v>266.7045835770116</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="C26" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="D26" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="E26" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="F26" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="G26" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="H26" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="I26" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="J26" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="K26" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700403</v>
       </c>
       <c r="L26" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="M26" t="n">
-        <v>212.8404435700399</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="N26" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="O26" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="P26" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="R26" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="S26" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="T26" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="U26" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="V26" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="W26" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="X26" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="Y26" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
     </row>
     <row r="27">
@@ -29351,16 +29351,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>82.57261098351204</v>
       </c>
       <c r="D27" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
         <v>158.8234391199283</v>
@@ -29396,31 +29396,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.037534323606007</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>96.93444614771343</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>191.4697362153245</v>
       </c>
       <c r="T27" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="U27" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="W27" t="n">
-        <v>212.8404435700393</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="Y27" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
     </row>
     <row r="28">
@@ -29463,43 +29463,43 @@
         <v>31.33949144013922</v>
       </c>
       <c r="M28" t="n">
-        <v>24.3603827851581</v>
+        <v>106.3896869824106</v>
       </c>
       <c r="N28" t="n">
         <v>15.68403999776786</v>
       </c>
       <c r="O28" t="n">
-        <v>187.6775902593203</v>
+        <v>36.70659427566596</v>
       </c>
       <c r="P28" t="n">
-        <v>57.81777162581083</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="Q28" t="n">
-        <v>212.8404435700393</v>
+        <v>126.7594634122123</v>
       </c>
       <c r="R28" t="n">
         <v>203.184286794587</v>
       </c>
       <c r="S28" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="T28" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="U28" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="V28" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="W28" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="X28" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="Y28" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
     </row>
     <row r="29">
@@ -29591,7 +29591,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>127.0479536023577</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
         <v>159.1723150765785</v>
@@ -29603,7 +29603,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>148.7380872222379</v>
       </c>
       <c r="H30" t="n">
         <v>125.6725816482287</v>
@@ -29636,7 +29636,7 @@
         <v>6.037534323606007</v>
       </c>
       <c r="R30" t="n">
-        <v>134.3151594521598</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>191.4697362153245</v>
@@ -29645,16 +29645,16 @@
         <v>212.8404435700394</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="V30" t="n">
-        <v>212.8404435700394</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>212.8404435700394</v>
       </c>
       <c r="X30" t="n">
-        <v>212.8404435700394</v>
+        <v>137.9473178779531</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -29700,10 +29700,10 @@
         <v>31.33949144013922</v>
       </c>
       <c r="M31" t="n">
-        <v>212.8404435700394</v>
+        <v>175.331378768812</v>
       </c>
       <c r="N31" t="n">
-        <v>64.25595535436779</v>
+        <v>15.68403999776786</v>
       </c>
       <c r="O31" t="n">
         <v>36.70659427566596</v>
@@ -29712,7 +29712,7 @@
         <v>57.81777162581083</v>
       </c>
       <c r="Q31" t="n">
-        <v>126.7594634122123</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="R31" t="n">
         <v>203.184286794587</v>
@@ -29779,7 +29779,7 @@
         <v>212.8404435700394</v>
       </c>
       <c r="M32" t="n">
-        <v>212.8404435700394</v>
+        <v>212.8404435700406</v>
       </c>
       <c r="N32" t="n">
         <v>212.8404435700394</v>
@@ -29888,10 +29888,10 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
         <v>212.8404435700394</v>
-      </c>
-      <c r="X33" t="n">
-        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>212.8404435700394</v>
@@ -29904,19 +29904,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>212.8404435700394</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
-        <v>212.8404435700394</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D34" t="n">
-        <v>212.8404435700394</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
-        <v>212.8404435700394</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F34" t="n">
-        <v>145.8938204041936</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
         <v>168.6953110816783</v>
@@ -29940,10 +29940,10 @@
         <v>24.3603827851581</v>
       </c>
       <c r="N34" t="n">
-        <v>15.68403999776786</v>
+        <v>66.94601006942331</v>
       </c>
       <c r="O34" t="n">
-        <v>36.70659427566596</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="P34" t="n">
         <v>57.81777162581083</v>
@@ -30010,7 +30010,7 @@
         <v>236.2350917786667</v>
       </c>
       <c r="K35" t="n">
-        <v>5.17776063756709</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -30019,10 +30019,10 @@
         <v>236.2350917786667</v>
       </c>
       <c r="N35" t="n">
-        <v>135.3941676900976</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>236.2350917786667</v>
+        <v>163.3901248111766</v>
       </c>
       <c r="P35" t="n">
         <v>236.2350917786667</v>
@@ -30034,10 +30034,10 @@
         <v>236.2350917786667</v>
       </c>
       <c r="S35" t="n">
-        <v>236.2350917786667</v>
+        <v>227.2394267154776</v>
       </c>
       <c r="T35" t="n">
-        <v>236.2350917786667</v>
+        <v>222.4125603583446</v>
       </c>
       <c r="U35" t="n">
         <v>236.2350917786667</v>
@@ -30065,16 +30065,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>6.054060418265237</v>
       </c>
       <c r="D36" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
         <v>148.7380872222379</v>
@@ -30110,13 +30110,13 @@
         <v>6.037534323606007</v>
       </c>
       <c r="R36" t="n">
-        <v>134.3151594521598</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>191.4697362153245</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>214.9446545048526</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>236.2350917786667</v>
@@ -30128,10 +30128,10 @@
         <v>236.2350917786667</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>49.15457025478651</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="37">
@@ -30150,7 +30150,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E37" t="n">
-        <v>141.676141212225</v>
+        <v>213.8416559073759</v>
       </c>
       <c r="F37" t="n">
         <v>138.9268822184467</v>
@@ -30183,19 +30183,19 @@
         <v>36.70659427566596</v>
       </c>
       <c r="P37" t="n">
-        <v>66.05534178850206</v>
+        <v>57.81777162581083</v>
       </c>
       <c r="Q37" t="n">
+        <v>126.7594634122123</v>
+      </c>
+      <c r="R37" t="n">
         <v>236.2350917786667</v>
-      </c>
-      <c r="R37" t="n">
-        <v>203.184286794587</v>
       </c>
       <c r="S37" t="n">
         <v>235.3428244409627</v>
       </c>
       <c r="T37" t="n">
-        <v>223.7382129287516</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="U37" t="n">
         <v>236.2350917786667</v>
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="C38" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="D38" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="E38" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="F38" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="G38" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="H38" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="I38" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="J38" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="K38" t="n">
-        <v>140.5719283276636</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="L38" t="n">
-        <v>236.2350917786667</v>
+        <v>127.2315567567829</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="O38" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="P38" t="n">
-        <v>236.2350917786667</v>
+        <v>13.34037157088128</v>
       </c>
       <c r="Q38" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="R38" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="S38" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="T38" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="U38" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="V38" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="W38" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="X38" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="Y38" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
     </row>
     <row r="39">
@@ -30302,16 +30302,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>158.7768826317202</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
         <v>148.7380872222379</v>
@@ -30344,7 +30344,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.037534323606007</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>134.3151594521598</v>
@@ -30353,22 +30353,22 @@
         <v>191.4697362153245</v>
       </c>
       <c r="T39" t="n">
-        <v>214.9446545048526</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>236.2350917786667</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="W39" t="n">
-        <v>236.2350917786667</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>208.3268853313649</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -30420,7 +30420,7 @@
         <v>36.70659427566596</v>
       </c>
       <c r="P40" t="n">
-        <v>175.5309701549565</v>
+        <v>175.5309701549562</v>
       </c>
       <c r="Q40" t="n">
         <v>126.7594634122123</v>
@@ -30435,13 +30435,13 @@
         <v>223.7382129287516</v>
       </c>
       <c r="U40" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="V40" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="W40" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="X40" t="n">
         <v>221.9194554082425</v>
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="C41" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="D41" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="E41" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="F41" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="G41" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="H41" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="I41" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="J41" t="n">
-        <v>236.2350917786668</v>
+        <v>75.74779675012002</v>
       </c>
       <c r="K41" t="n">
-        <v>236.2350917786668</v>
+        <v>5.17776063756709</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="M41" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>110.7607286865106</v>
       </c>
       <c r="O41" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="P41" t="n">
-        <v>140.5719283276631</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="Q41" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="R41" t="n">
-        <v>236.2350917786668</v>
+        <v>194.1163990953234</v>
       </c>
       <c r="S41" t="n">
-        <v>236.2350917786668</v>
+        <v>227.2394267154776</v>
       </c>
       <c r="T41" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="U41" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="V41" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="W41" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="X41" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="Y41" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
     </row>
     <row r="42">
@@ -30542,13 +30542,13 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
         <v>148.7380872222379</v>
@@ -30581,31 +30581,31 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.037534323606007</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>134.3151594521598</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>191.4697362153245</v>
+        <v>82.09897226998628</v>
       </c>
       <c r="T42" t="n">
         <v>214.9446545048526</v>
       </c>
       <c r="U42" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="V42" t="n">
-        <v>236.2350917786668</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>236.2350917786668</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>208.3268853313649</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -30642,7 +30642,7 @@
         <v>119.8533137078861</v>
       </c>
       <c r="K43" t="n">
-        <v>184.1083791668834</v>
+        <v>66.39518063773792</v>
       </c>
       <c r="L43" t="n">
         <v>31.33949144013922</v>
@@ -30657,7 +30657,7 @@
         <v>36.70659427566596</v>
       </c>
       <c r="P43" t="n">
-        <v>57.81777162581083</v>
+        <v>175.5309701549565</v>
       </c>
       <c r="Q43" t="n">
         <v>126.7594634122123</v>
@@ -30672,13 +30672,13 @@
         <v>223.7382129287516</v>
       </c>
       <c r="U43" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="V43" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="W43" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="X43" t="n">
         <v>221.9194554082425</v>
@@ -30694,76 +30694,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="C44" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="D44" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="E44" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="F44" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="G44" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="H44" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="I44" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="J44" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="K44" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="L44" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="M44" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>236.2350917786668</v>
+        <v>141.0540881771062</v>
       </c>
       <c r="P44" t="n">
-        <v>94.29426321231597</v>
+        <v>13.34037157088128</v>
       </c>
       <c r="Q44" t="n">
-        <v>88.39635779869053</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="R44" t="n">
-        <v>194.1163990953234</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="S44" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="T44" t="n">
-        <v>236.2350917786668</v>
+        <v>222.4125603583446</v>
       </c>
       <c r="U44" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="V44" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="W44" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="X44" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="Y44" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
     </row>
     <row r="45">
@@ -30782,7 +30782,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
         <v>158.8234391199283</v>
@@ -30818,31 +30818,31 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.037534323606007</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>134.3151594521598</v>
       </c>
       <c r="S45" t="n">
-        <v>191.4697362153245</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>214.9446545048526</v>
       </c>
       <c r="U45" t="n">
-        <v>236.2350917786668</v>
+        <v>111.683501570851</v>
       </c>
       <c r="V45" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="W45" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="X45" t="n">
-        <v>192.9571533555105</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -30864,10 +30864,10 @@
         <v>141.676141212225</v>
       </c>
       <c r="F46" t="n">
-        <v>138.9268822184467</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="G46" t="n">
-        <v>168.6953110816783</v>
+        <v>176.6034212006889</v>
       </c>
       <c r="H46" t="n">
         <v>165.7758191012691</v>
@@ -30894,7 +30894,7 @@
         <v>36.70659427566596</v>
       </c>
       <c r="P46" t="n">
-        <v>175.5309701549563</v>
+        <v>57.81777162581083</v>
       </c>
       <c r="Q46" t="n">
         <v>126.7594634122123</v>
@@ -30906,16 +30906,16 @@
         <v>235.3428244409627</v>
       </c>
       <c r="T46" t="n">
-        <v>223.7382129287516</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="U46" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="V46" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="W46" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="X46" t="n">
         <v>221.9194554082425</v>
@@ -35413,7 +35413,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>49.11497697927649</v>
+        <v>51.5201636134227</v>
       </c>
       <c r="M11" t="n">
         <v>83.81751137732806</v>
@@ -35425,13 +35425,13 @@
         <v>36.61860963435598</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>84.54481721446604</v>
       </c>
       <c r="Q11" t="n">
-        <v>76.95496121777057</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>9.995042630841333</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,19 +35492,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>81.1288650037805</v>
       </c>
       <c r="M12" t="n">
-        <v>81.12886500378049</v>
+        <v>84.54481721446604</v>
       </c>
       <c r="N12" t="n">
-        <v>84.54481721446595</v>
+        <v>84.54481721446604</v>
       </c>
       <c r="O12" t="n">
-        <v>84.54481721446595</v>
+        <v>84.54481721446604</v>
       </c>
       <c r="P12" t="n">
-        <v>84.54481721446595</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35550,40 +35550,40 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>62.43530051393972</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>27.84702999950505</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>38.33562262489563</v>
+        <v>38.33562262489555</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>5.737513298979161</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>84.54481721446595</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>84.54481721446604</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>84.54481721446604</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>84.54481721446595</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>84.54481721446604</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,19 +35644,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>80.66740144175208</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>51.52016361342248</v>
+        <v>49.11497697927649</v>
       </c>
       <c r="M14" t="n">
         <v>83.81751137732806</v>
       </c>
       <c r="N14" t="n">
-        <v>78.26221480760586</v>
+        <v>84.54481721446604</v>
       </c>
       <c r="O14" t="n">
         <v>36.61860963435598</v>
@@ -35665,7 +35665,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>84.54481721446595</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>39.39918729404057</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>41.72967770973993</v>
       </c>
       <c r="M15" t="n">
-        <v>84.54481721446595</v>
+        <v>84.54481721446604</v>
       </c>
       <c r="N15" t="n">
-        <v>81.12886500378049</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>84.54481721446595</v>
+        <v>84.54481721446604</v>
       </c>
       <c r="P15" t="n">
-        <v>84.54481721446595</v>
+        <v>84.54481721446604</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35778,16 +35778,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.49452106119656</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>37.65426075419228</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>62.43530051393967</v>
+        <v>62.43530051393964</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -35796,34 +35796,34 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>38.33562262489558</v>
+        <v>28.52839187020889</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>84.2581280182786</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>84.54481721446595</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>84.54481721446604</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>84.54481721446604</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.639198134496279</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,7 +35878,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>84.54481721446595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -35899,7 +35899,7 @@
         <v>36.61860963435598</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>84.54481721446604</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35917,7 +35917,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>2.405186634145956</v>
+        <v>2.405186634146244</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>39.39918729404057</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>81.1288650037805</v>
       </c>
       <c r="M18" t="n">
-        <v>41.72967770973991</v>
+        <v>84.54481721446604</v>
       </c>
       <c r="N18" t="n">
-        <v>84.54481721446595</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>84.54481721446595</v>
+        <v>84.54481721446604</v>
       </c>
       <c r="P18" t="n">
-        <v>84.54481721446595</v>
+        <v>84.54481721446604</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>49.11497697927649</v>
       </c>
       <c r="M20" t="n">
-        <v>83.81751137732806</v>
+        <v>84.54481721446604</v>
       </c>
       <c r="N20" t="n">
         <v>78.26221480760586</v>
@@ -36145,16 +36145,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>84.54481721446604</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>84.54481721446595</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>2.405186634145956</v>
+        <v>1.677880797008255</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -36203,19 +36203,19 @@
         <v>39.39918729404057</v>
       </c>
       <c r="L21" t="n">
-        <v>84.54481721446595</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>84.54481721446595</v>
+        <v>41.72967770973993</v>
       </c>
       <c r="N21" t="n">
-        <v>84.54481721446595</v>
+        <v>84.54481721446604</v>
       </c>
       <c r="O21" t="n">
-        <v>41.7296777097399</v>
+        <v>84.54481721446604</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>84.54481721446604</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36370,7 +36370,7 @@
         <v>78.26221480760586</v>
       </c>
       <c r="O23" t="n">
-        <v>36.61860963435598</v>
+        <v>39.02379626850218</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36379,10 +36379,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>84.54481721446604</v>
       </c>
       <c r="S23" t="n">
-        <v>72.39689513743146</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -36391,7 +36391,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>14.55310871118047</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>39.39918729404057</v>
       </c>
       <c r="L24" t="n">
-        <v>84.54481721446595</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>84.54481721446595</v>
+        <v>84.54481721446604</v>
       </c>
       <c r="N24" t="n">
-        <v>81.12886500378046</v>
+        <v>84.54481721446604</v>
       </c>
       <c r="O24" t="n">
-        <v>84.54481721446595</v>
+        <v>41.72967770973995</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>84.54481721446604</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>137.0926468199193</v>
+        <v>137.0926468199194</v>
       </c>
       <c r="K26" t="n">
-        <v>207.6626829324723</v>
+        <v>207.6626829324732</v>
       </c>
       <c r="L26" t="n">
-        <v>261.9554205493158</v>
+        <v>261.9554205493159</v>
       </c>
       <c r="M26" t="n">
-        <v>296.657954947368</v>
+        <v>296.6579549473674</v>
       </c>
       <c r="N26" t="n">
         <v>291.1026583776452</v>
       </c>
       <c r="O26" t="n">
-        <v>249.4590532043953</v>
+        <v>249.4590532043954</v>
       </c>
       <c r="P26" t="n">
         <v>199.5000719991581</v>
       </c>
       <c r="Q26" t="n">
-        <v>124.4440857713488</v>
+        <v>124.4440857713489</v>
       </c>
       <c r="R26" t="n">
-        <v>18.72404447471595</v>
+        <v>18.724044474716</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36759,19 +36759,19 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>82.02930419725246</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>150.9709959836544</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>155.0226719442285</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.08098015782701</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,13 +36829,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>137.0926468199193</v>
+        <v>137.0926468199194</v>
       </c>
       <c r="K29" t="n">
         <v>207.6626829324723</v>
       </c>
       <c r="L29" t="n">
-        <v>261.9554205493158</v>
+        <v>261.9554205493159</v>
       </c>
       <c r="M29" t="n">
         <v>296.6579549473674</v>
@@ -36844,16 +36844,16 @@
         <v>291.1026583776452</v>
       </c>
       <c r="O29" t="n">
-        <v>249.4590532043953</v>
+        <v>249.4590532043954</v>
       </c>
       <c r="P29" t="n">
         <v>199.5000719991581</v>
       </c>
       <c r="Q29" t="n">
-        <v>124.4440857713488</v>
+        <v>124.4440857713489</v>
       </c>
       <c r="R29" t="n">
-        <v>18.72404447471597</v>
+        <v>18.72404447471601</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36996,10 +36996,10 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>188.4800607848813</v>
+        <v>150.9709959836539</v>
       </c>
       <c r="N31" t="n">
-        <v>48.57191535659992</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -37008,7 +37008,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.08098015782707</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>137.0926468199194</v>
+        <v>137.0926468199193</v>
       </c>
       <c r="K32" t="n">
         <v>207.6626829324723</v>
       </c>
       <c r="L32" t="n">
-        <v>261.9554205493159</v>
+        <v>261.9554205493158</v>
       </c>
       <c r="M32" t="n">
-        <v>296.6579549473674</v>
+        <v>296.6579549473686</v>
       </c>
       <c r="N32" t="n">
-        <v>291.1026583776453</v>
+        <v>291.1026583776452</v>
       </c>
       <c r="O32" t="n">
-        <v>249.4590532043954</v>
+        <v>249.4590532043953</v>
       </c>
       <c r="P32" t="n">
         <v>199.5000719991581</v>
       </c>
       <c r="Q32" t="n">
-        <v>124.4440857713489</v>
+        <v>124.4440857713488</v>
       </c>
       <c r="R32" t="n">
-        <v>18.72404447471603</v>
+        <v>18.72404447471597</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37200,19 +37200,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>35.22352290507132</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>46.38326259806706</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>67.6577933193287</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>71.16430235781442</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>6.96693818574693</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -37236,10 +37236,10 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>51.26197007165545</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>176.1338492943734</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -37248,7 +37248,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.656156775452388</v>
+        <v>9.656156775452331</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>160.4872950285467</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>231.0573311410996</v>
       </c>
       <c r="L35" t="n">
         <v>49.11497697927649</v>
@@ -37315,25 +37315,25 @@
         <v>320.0526031559948</v>
       </c>
       <c r="N35" t="n">
-        <v>213.6563824977034</v>
+        <v>78.26221480760586</v>
       </c>
       <c r="O35" t="n">
-        <v>272.8537014130227</v>
+        <v>200.0087344455326</v>
       </c>
       <c r="P35" t="n">
-        <v>222.8947202077855</v>
+        <v>222.8947202077854</v>
       </c>
       <c r="Q35" t="n">
         <v>147.8387339799762</v>
       </c>
       <c r="R35" t="n">
-        <v>42.11869268334336</v>
+        <v>42.11869268334333</v>
       </c>
       <c r="S35" t="n">
-        <v>8.995665063189175</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>13.82253142032215</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37446,7 +37446,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>72.16551469515095</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -37479,19 +37479,19 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>8.237570162691231</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>109.4756283664544</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>33.05080498407969</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>12.4968788499151</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -37540,37 +37540,37 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>160.4872950285467</v>
+        <v>160.4872950285468</v>
       </c>
       <c r="K38" t="n">
-        <v>135.3941676900965</v>
+        <v>231.0573311410997</v>
       </c>
       <c r="L38" t="n">
-        <v>285.3500687579432</v>
+        <v>176.3465337360593</v>
       </c>
       <c r="M38" t="n">
         <v>83.81751137732806</v>
       </c>
       <c r="N38" t="n">
-        <v>78.26221480760586</v>
+        <v>314.4973065862727</v>
       </c>
       <c r="O38" t="n">
-        <v>272.8537014130227</v>
+        <v>272.8537014130228</v>
       </c>
       <c r="P38" t="n">
-        <v>222.8947202077855</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>147.8387339799762</v>
+        <v>147.8387339799763</v>
       </c>
       <c r="R38" t="n">
-        <v>42.11869268334336</v>
+        <v>42.11869268334345</v>
       </c>
       <c r="S38" t="n">
-        <v>8.995665063189175</v>
+        <v>8.995665063189261</v>
       </c>
       <c r="T38" t="n">
-        <v>13.82253142032215</v>
+        <v>13.82253142032224</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37716,7 +37716,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>117.7131985291456</v>
+        <v>117.7131985291454</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,37 +37777,37 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>160.4872950285468</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>231.0573311410997</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>49.11497697927649</v>
+        <v>285.3500687579432</v>
       </c>
       <c r="M41" t="n">
-        <v>320.0526031559949</v>
+        <v>320.0526031559948</v>
       </c>
       <c r="N41" t="n">
-        <v>78.26221480760586</v>
+        <v>189.0229434941165</v>
       </c>
       <c r="O41" t="n">
-        <v>272.8537014130228</v>
+        <v>272.8537014130227</v>
       </c>
       <c r="P41" t="n">
-        <v>127.2315567567818</v>
+        <v>222.8947202077854</v>
       </c>
       <c r="Q41" t="n">
-        <v>147.8387339799763</v>
+        <v>147.8387339799762</v>
       </c>
       <c r="R41" t="n">
-        <v>42.11869268334342</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>8.995665063189232</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>13.82253142032221</v>
+        <v>13.82253142032212</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>117.7131985291455</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -37953,7 +37953,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>117.7131985291457</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,37 +38014,37 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>160.4872950285468</v>
+        <v>160.4872950285467</v>
       </c>
       <c r="K44" t="n">
-        <v>231.0573311410997</v>
+        <v>231.0573311410996</v>
       </c>
       <c r="L44" t="n">
-        <v>285.3500687579433</v>
+        <v>285.3500687579432</v>
       </c>
       <c r="M44" t="n">
-        <v>320.0526031559949</v>
+        <v>320.0526031559948</v>
       </c>
       <c r="N44" t="n">
         <v>78.26221480760586</v>
       </c>
       <c r="O44" t="n">
-        <v>272.8537014130228</v>
+        <v>177.6726978114621</v>
       </c>
       <c r="P44" t="n">
-        <v>80.95389164143468</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>147.8387339799762</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>42.11869268334333</v>
       </c>
       <c r="S44" t="n">
-        <v>8.995665063189232</v>
+        <v>8.995665063189147</v>
       </c>
       <c r="T44" t="n">
-        <v>13.82253142032221</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38160,10 +38160,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>97.30820956022006</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>7.90811011901058</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -38190,7 +38190,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>117.7131985291455</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -38202,7 +38202,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>12.4968788499151</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
